--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4172891.58</v>
+        <v>7200430.02</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>149031.84</v>
+        <v>180010.75</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>459599.77</v>
+        <v>459695.78</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99180.12</v>
+        <v>99103.64</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242115.98</v>
+        <v>242364.42</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>358519.66</v>
+        <v>342305.82</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>109200.24</v>
+        <v>133855.46</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>349400.5</v>
+        <v>349963.03</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>125454.18</v>
+        <v>125630.91</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>244943.85</v>
+        <v>245109.58</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>347321.59</v>
+        <v>347692.98</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>128278.82</v>
+        <v>127863.38</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>174292.13</v>
+        <v>174692.86</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>154169.26</v>
+        <v>154147.61</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108374.8</v>
+        <v>108069.71</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>225113.47</v>
+        <v>220474.9</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>234384.5</v>
+        <v>234473.01</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30151.75</v>
+        <v>30019.7</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>214355</v>
+        <v>214807.43</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>80088.00999999999</v>
+        <v>80001.64999999999</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>48595.69</v>
+        <v>54940.28</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36693.5</v>
+        <v>36783.49</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>60681.33</v>
+        <v>60644.87</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65496.8</v>
+        <v>65439.45</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>38983.66</v>
+        <v>39134.92</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>17006.35</v>
+        <v>16961.65</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>121334.3</v>
+        <v>120966.47</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50830.15</v>
+        <v>50893.88</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2030.36</v>
+        <v>2029.51</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,127 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46295.81</v>
+        <v>46408.88</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>62630.56</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>13896.76</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>661302.59</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>179625.96</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>123567.56</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>15003.14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>198428.93</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta acciones</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>1220.73</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>10499.83</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>2029.51</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>1747749.18</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,155 +439,203 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7200430.02</v>
+        <v>65439.45</v>
+      </c>
+      <c r="C2" t="n">
+        <v>65113.68</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180010.75</v>
+        <v>459695.78</v>
+      </c>
+      <c r="C3" t="n">
+        <v>460076.59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>459695.78</v>
+        <v>39134.92</v>
+      </c>
+      <c r="C4" t="n">
+        <v>38928.01</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>99103.64</v>
+        <v>36783.49</v>
+      </c>
+      <c r="C5" t="n">
+        <v>36790.43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>242364.42</v>
+        <v>99103.64</v>
+      </c>
+      <c r="C6" t="n">
+        <v>99318.73</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>342305.82</v>
+        <v>242364.42</v>
+      </c>
+      <c r="C7" t="n">
+        <v>242684.39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>133855.46</v>
+        <v>179625.96</v>
+      </c>
+      <c r="C8" t="n">
+        <v>179630.92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>349963.03</v>
+        <v>16961.65</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16550.17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>125630.91</v>
+        <v>1220.73</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1220.74</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>245109.58</v>
+        <v>15003.14</v>
+      </c>
+      <c r="C11" t="n">
+        <v>15021.03</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>347692.98</v>
+        <v>342305.82</v>
+      </c>
+      <c r="C12" t="n">
+        <v>342394.97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>127863.38</v>
-      </c>
+        <v>133855.46</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>174692.86</v>
+        <v>349963.03</v>
+      </c>
+      <c r="C14" t="n">
+        <v>350576.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>154147.61</v>
+        <v>125630.91</v>
+      </c>
+      <c r="C15" t="n">
+        <v>125184.6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>108069.71</v>
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -599,6 +647,9 @@
       <c r="B17" t="n">
         <v>220474.9</v>
       </c>
+      <c r="C17" t="n">
+        <v>255598.38</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -609,125 +660,164 @@
       <c r="B18" t="n">
         <v>234473.01</v>
       </c>
+      <c r="C18" t="n">
+        <v>251419.77</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30019.7</v>
+        <v>245109.58</v>
+      </c>
+      <c r="C19" t="n">
+        <v>246329.97</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>214807.43</v>
+        <v>347692.98</v>
+      </c>
+      <c r="C20" t="n">
+        <v>352513</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>80001.64999999999</v>
+        <v>120966.47</v>
+      </c>
+      <c r="C21" t="n">
+        <v>120873.18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Goal</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54940.28</v>
+        <v>50893.88</v>
+      </c>
+      <c r="C22" t="n">
+        <v>50748.5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36783.49</v>
+        <v>10499.83</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10488.52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>60644.87</v>
+        <v>127863.38</v>
+      </c>
+      <c r="C24" t="n">
+        <v>128297.94</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>65439.45</v>
+        <v>174692.86</v>
+      </c>
+      <c r="C25" t="n">
+        <v>174459.32</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>39134.92</v>
+        <v>54940.28</v>
+      </c>
+      <c r="C26" t="n">
+        <v>53451.33</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16961.65</v>
+        <v>2029.51</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2811.8</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120966.47</v>
+        <v>2029.51</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2811.8</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Goal</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>50893.88</v>
+        <v>62630.56</v>
+      </c>
+      <c r="C29" t="n">
+        <v>62561.72</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2029.51</v>
+        <v>13896.76</v>
+      </c>
+      <c r="C30" t="n">
+        <v>13847.78</v>
       </c>
     </row>
     <row r="31">
@@ -739,75 +829,99 @@
       <c r="B31" t="n">
         <v>46408.88</v>
       </c>
+      <c r="C31" t="n">
+        <v>46332.05</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>30019.7</v>
+      </c>
+      <c r="C32" t="n">
+        <v>49829.03</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>62630.56</v>
+        <v>214807.43</v>
+      </c>
+      <c r="C33" t="n">
+        <v>214583.84</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13896.76</v>
+        <v>60644.87</v>
+      </c>
+      <c r="C34" t="n">
+        <v>60645.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>661302.59</v>
+        <v>154147.61</v>
+      </c>
+      <c r="C35" t="n">
+        <v>153737.81</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>179625.96</v>
+        <v>108069.71</v>
+      </c>
+      <c r="C36" t="n">
+        <v>108208.8</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>123567.56</v>
+        <v>1747749.18</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1986685.86</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>15003.14</v>
+        <v>661302.59</v>
+      </c>
+      <c r="C38" t="n">
+        <v>659915.41</v>
       </c>
     </row>
     <row r="39">
@@ -819,45 +933,60 @@
       <c r="B39" t="n">
         <v>198428.93</v>
       </c>
+      <c r="C39" t="n">
+        <v>197661.1</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1220.73</v>
+        <v>80001.64999999999</v>
+      </c>
+      <c r="C40" t="n">
+        <v>79944.42</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>10499.83</v>
+        <v>123567.56</v>
+      </c>
+      <c r="C41" t="n">
+        <v>123590.2</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2029.51</v>
+        <v>180010.75</v>
+      </c>
+      <c r="C42" t="n">
+        <v>189252.25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1747749.18</v>
+        <v>7200430.02</v>
+      </c>
+      <c r="C43" t="n">
+        <v>7380837.69</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,445 +439,582 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7744181.33</v>
+        <v>65113.68</v>
+      </c>
+      <c r="C2" t="n">
+        <v>65208.4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>184385.27</v>
+        <v>460076.59</v>
+      </c>
+      <c r="C3" t="n">
+        <v>432276.88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65113.68</v>
+        <v>38928.01</v>
+      </c>
+      <c r="C4" t="n">
+        <v>49545.18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>460076.59</v>
+        <v>36790.43</v>
+      </c>
+      <c r="C5" t="n">
+        <v>36852.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38928.01</v>
+        <v>99318.73</v>
+      </c>
+      <c r="C6" t="n">
+        <v>99171.28999999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36790.43</v>
+        <v>119.06</v>
+      </c>
+      <c r="C7" t="n">
+        <v>114.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>99318.73</v>
+        <v>242684.39</v>
+      </c>
+      <c r="C8" t="n">
+        <v>243082.7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Latam</t>
+          <t>Alpha Recursos Naturales</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>119.06</v>
+        <v>220159.87</v>
+      </c>
+      <c r="C9" t="n">
+        <v>228455.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>242684.39</v>
+        <v>179630.92</v>
+      </c>
+      <c r="C10" t="n">
+        <v>178136.02</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha Recursos Naturales</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>220159.87</v>
+        <v>16550.17</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16528.16</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta acciones</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>179630.92</v>
+        <v>1220.74</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1214.03</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16550.17</v>
+        <v>15021.03</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15001.71</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Arpenta acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1220.74</v>
+        <v>342394.97</v>
+      </c>
+      <c r="C14" t="n">
+        <v>343069.22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15021.03</v>
+        <v>145795.8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>162896.96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Compass Small Cap II</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>342394.97</v>
+        <v>80.70999999999999</v>
+      </c>
+      <c r="C16" t="n">
+        <v>82.77</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>145795.8</v>
+        <v>350576.1</v>
+      </c>
+      <c r="C17" t="n">
+        <v>350043.47</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Compass Small Cap II</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80.70999999999999</v>
+        <v>125184.6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>124903.09</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>350576.1</v>
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>125184.6</v>
+        <v>255598.38</v>
+      </c>
+      <c r="C20" t="n">
+        <v>255881.76</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>251419.77</v>
+      </c>
+      <c r="C21" t="n">
+        <v>251924.4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>255598.38</v>
+        <v>246329.97</v>
+      </c>
+      <c r="C22" t="n">
+        <v>246155.64</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>251419.77</v>
+        <v>352513</v>
+      </c>
+      <c r="C23" t="n">
+        <v>369060.26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>246329.97</v>
+        <v>120873.18</v>
+      </c>
+      <c r="C24" t="n">
+        <v>120941.11</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>352513</v>
+        <v>50748.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>50811.18</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>120873.18</v>
+        <v>10488.52</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10478.69</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>50748.5</v>
+        <v>128297.94</v>
+      </c>
+      <c r="C27" t="n">
+        <v>128323.86</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>10488.52</v>
+        <v>174459.32</v>
+      </c>
+      <c r="C28" t="n">
+        <v>174240</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>128297.94</v>
+        <v>53451.33</v>
+      </c>
+      <c r="C29" t="n">
+        <v>56055.15</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>174459.32</v>
+        <v>2811.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2833.91</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53451.33</v>
+        <v>62561.72</v>
+      </c>
+      <c r="C31" t="n">
+        <v>71093.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2811.8</v>
+        <v>13847.78</v>
+      </c>
+      <c r="C32" t="n">
+        <v>13990.63</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>62561.72</v>
+        <v>46332.05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>46354.95</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>13847.78</v>
+        <v>49829.03</v>
+      </c>
+      <c r="C34" t="n">
+        <v>119916.14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46332.05</v>
+        <v>214583.84</v>
+      </c>
+      <c r="C35" t="n">
+        <v>214408.32</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>49829.03</v>
+        <v>60645.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>60516.93</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>214583.84</v>
+        <v>153737.81</v>
+      </c>
+      <c r="C37" t="n">
+        <v>154135.23</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>60645.8</v>
+        <v>108208.8</v>
+      </c>
+      <c r="C38" t="n">
+        <v>108402.05</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>153737.81</v>
+        <v>1986685.86</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1988073.21</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>108208.8</v>
+        <v>659915.41</v>
+      </c>
+      <c r="C40" t="n">
+        <v>661651.3199999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1986685.86</v>
+        <v>197661.1</v>
+      </c>
+      <c r="C41" t="n">
+        <v>197729.46</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>659915.41</v>
+        <v>79944.42</v>
+      </c>
+      <c r="C42" t="n">
+        <v>80133.28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>197661.1</v>
+        <v>123590.2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>123591.93</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>79944.42</v>
+        <v>184385.27</v>
+      </c>
+      <c r="C44" t="n">
+        <v>186983</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>123590.2</v>
+        <v>7744181.33</v>
+      </c>
+      <c r="C45" t="n">
+        <v>7853285.87</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -649,9 +649,7 @@
       <c r="B17" t="n">
         <v>350576.1</v>
       </c>
-      <c r="C17" t="n">
-        <v>350043.47</v>
-      </c>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -662,9 +660,7 @@
       <c r="B18" t="n">
         <v>125184.6</v>
       </c>
-      <c r="C18" t="n">
-        <v>124903.09</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -675,9 +671,7 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -688,9 +682,7 @@
       <c r="B20" t="n">
         <v>255598.38</v>
       </c>
-      <c r="C20" t="n">
-        <v>255881.76</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -701,9 +693,7 @@
       <c r="B21" t="n">
         <v>251419.77</v>
       </c>
-      <c r="C21" t="n">
-        <v>251924.4</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -714,9 +704,7 @@
       <c r="B22" t="n">
         <v>246329.97</v>
       </c>
-      <c r="C22" t="n">
-        <v>246155.64</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -870,9 +858,7 @@
       <c r="B34" t="n">
         <v>49829.03</v>
       </c>
-      <c r="C34" t="n">
-        <v>119916.14</v>
-      </c>
+      <c r="C34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1001,7 +987,7 @@
         <v>184385.27</v>
       </c>
       <c r="C44" t="n">
-        <v>186983</v>
+        <v>185841.75</v>
       </c>
     </row>
     <row r="45">
@@ -1014,7 +1000,7 @@
         <v>7744181.33</v>
       </c>
       <c r="C45" t="n">
-        <v>7853285.87</v>
+        <v>6504461.37</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65113.68</v>
+        <v>45594.91</v>
       </c>
       <c r="C2" t="n">
-        <v>65208.4</v>
+        <v>45500.42</v>
       </c>
       <c r="D2" t="n">
-        <v>65282.58</v>
+        <v>43866.84</v>
       </c>
       <c r="E2" t="n">
-        <v>65037.03</v>
+        <v>45676.61</v>
       </c>
       <c r="F2" t="n">
-        <v>64916.07</v>
+        <v>45718.64</v>
       </c>
       <c r="G2" t="n">
-        <v>65148.29</v>
-      </c>
-      <c r="H2" t="n">
-        <v>65798.48</v>
-      </c>
-      <c r="I2" t="n">
-        <v>45609.88</v>
-      </c>
-      <c r="J2" t="n">
-        <v>45155.71</v>
-      </c>
-      <c r="K2" t="n">
-        <v>45713.67</v>
-      </c>
-      <c r="L2" t="n">
-        <v>45135.45</v>
-      </c>
-      <c r="M2" t="n">
-        <v>45594.91</v>
+        <v>45610.62</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>460076.59</v>
+        <v>449894.05</v>
       </c>
       <c r="C3" t="n">
-        <v>432276.88</v>
+        <v>450896.94</v>
       </c>
       <c r="D3" t="n">
-        <v>433065.87</v>
+        <v>434789.91</v>
       </c>
       <c r="E3" t="n">
-        <v>474565.05</v>
+        <v>451048.01</v>
       </c>
       <c r="F3" t="n">
-        <v>474734.03</v>
+        <v>451327.27</v>
       </c>
       <c r="G3" t="n">
-        <v>474412.74</v>
-      </c>
-      <c r="H3" t="n">
-        <v>449756.54</v>
-      </c>
-      <c r="I3" t="n">
-        <v>450238.13</v>
-      </c>
-      <c r="J3" t="n">
-        <v>450982.83</v>
-      </c>
-      <c r="K3" t="n">
-        <v>450963.31</v>
-      </c>
-      <c r="L3" t="n">
-        <v>450476.24</v>
-      </c>
-      <c r="M3" t="n">
-        <v>449894.05</v>
+        <v>469159.37</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38928.01</v>
+        <v>69388.66</v>
       </c>
       <c r="C4" t="n">
-        <v>49545.18</v>
+        <v>69382.28999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>49683.68</v>
+        <v>66900.34</v>
       </c>
       <c r="E4" t="n">
-        <v>49654.22</v>
+        <v>69427.23</v>
       </c>
       <c r="F4" t="n">
-        <v>69458.35000000001</v>
+        <v>69485.13</v>
       </c>
       <c r="G4" t="n">
-        <v>69216.97</v>
-      </c>
-      <c r="H4" t="n">
-        <v>69553.59</v>
-      </c>
-      <c r="I4" t="n">
-        <v>69462.82000000001</v>
-      </c>
-      <c r="J4" t="n">
-        <v>69448.49000000001</v>
-      </c>
-      <c r="K4" t="n">
-        <v>69535.37</v>
-      </c>
-      <c r="L4" t="n">
-        <v>69386.17</v>
-      </c>
-      <c r="M4" t="n">
-        <v>69388.66</v>
+        <v>69348.75999999999</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36790.43</v>
+        <v>36747.22</v>
       </c>
       <c r="C5" t="n">
-        <v>36852.77</v>
+        <v>36856.87</v>
       </c>
       <c r="D5" t="n">
-        <v>36740.02</v>
+        <v>35422.11</v>
       </c>
       <c r="E5" t="n">
-        <v>36924.27</v>
+        <v>36781.44</v>
       </c>
       <c r="F5" t="n">
-        <v>36605.68</v>
+        <v>36593.09</v>
       </c>
       <c r="G5" t="n">
-        <v>36669.13</v>
-      </c>
-      <c r="H5" t="n">
-        <v>36823.28</v>
-      </c>
-      <c r="I5" t="n">
-        <v>36760.33</v>
-      </c>
-      <c r="J5" t="n">
-        <v>36614.16</v>
-      </c>
-      <c r="K5" t="n">
-        <v>36704.99</v>
-      </c>
-      <c r="L5" t="n">
-        <v>36655.73</v>
-      </c>
-      <c r="M5" t="n">
-        <v>36747.22</v>
+        <v>36940.3</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99318.73</v>
+        <v>98818.37</v>
       </c>
       <c r="C6" t="n">
-        <v>99171.28999999999</v>
+        <v>99382.7</v>
       </c>
       <c r="D6" t="n">
-        <v>99240.85000000001</v>
+        <v>95580.71000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>99228.41</v>
+        <v>98780.86</v>
       </c>
       <c r="F6" t="n">
-        <v>99512.39999999999</v>
+        <v>98913.5</v>
       </c>
       <c r="G6" t="n">
-        <v>98910.73</v>
-      </c>
-      <c r="H6" t="n">
-        <v>99003.35000000001</v>
-      </c>
-      <c r="I6" t="n">
-        <v>99546.85000000001</v>
-      </c>
-      <c r="J6" t="n">
-        <v>99422.82000000001</v>
-      </c>
-      <c r="K6" t="n">
-        <v>98963.87</v>
-      </c>
-      <c r="L6" t="n">
-        <v>99416.28</v>
-      </c>
-      <c r="M6" t="n">
-        <v>98818.37</v>
+        <v>99622.67</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119.06</v>
+        <v>102.52</v>
       </c>
       <c r="C7" t="n">
-        <v>114.95</v>
+        <v>101.8</v>
       </c>
       <c r="D7" t="n">
-        <v>110.83</v>
+        <v>96.19</v>
       </c>
       <c r="E7" t="n">
-        <v>113.45</v>
+        <v>101.35</v>
       </c>
       <c r="F7" t="n">
-        <v>111.05</v>
+        <v>88.88</v>
       </c>
       <c r="G7" t="n">
-        <v>111.83</v>
-      </c>
-      <c r="H7" t="n">
-        <v>111.69</v>
-      </c>
-      <c r="I7" t="n">
-        <v>109.66</v>
-      </c>
-      <c r="J7" t="n">
-        <v>108.35</v>
-      </c>
-      <c r="K7" t="n">
-        <v>102.6</v>
-      </c>
-      <c r="L7" t="n">
-        <v>103.22</v>
-      </c>
-      <c r="M7" t="n">
-        <v>102.52</v>
+        <v>89.44</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +622,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>242684.39</v>
+        <v>96217.66</v>
       </c>
       <c r="C8" t="n">
-        <v>243082.7</v>
+        <v>95045.59</v>
       </c>
       <c r="D8" t="n">
-        <v>243003.64</v>
+        <v>92429.17999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>241951.01</v>
+        <v>96212.92999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>243136.47</v>
+        <v>94919.12</v>
       </c>
       <c r="G8" t="n">
-        <v>242536.51</v>
-      </c>
-      <c r="H8" t="n">
-        <v>242319.86</v>
-      </c>
-      <c r="I8" t="n">
-        <v>242595.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>171681.89</v>
-      </c>
-      <c r="K8" t="n">
-        <v>171529.91</v>
-      </c>
-      <c r="L8" t="n">
-        <v>94772.69</v>
-      </c>
-      <c r="M8" t="n">
-        <v>96217.66</v>
+        <v>94933.37</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +647,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>220159.87</v>
+        <v>256878.88</v>
       </c>
       <c r="C9" t="n">
-        <v>228455.66</v>
+        <v>256589.93</v>
       </c>
       <c r="D9" t="n">
-        <v>256966.52</v>
+        <v>247363.78</v>
       </c>
       <c r="E9" t="n">
-        <v>256867.03</v>
+        <v>256667</v>
       </c>
       <c r="F9" t="n">
-        <v>256681.56</v>
+        <v>361646.91</v>
       </c>
       <c r="G9" t="n">
-        <v>256818.34</v>
-      </c>
-      <c r="H9" t="n">
-        <v>256649.31</v>
-      </c>
-      <c r="I9" t="n">
-        <v>256742.18</v>
-      </c>
-      <c r="J9" t="n">
-        <v>256724.66</v>
-      </c>
-      <c r="K9" t="n">
-        <v>256810.59</v>
-      </c>
-      <c r="L9" t="n">
-        <v>256846.29</v>
-      </c>
-      <c r="M9" t="n">
-        <v>256878.88</v>
+        <v>361623.38</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +672,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179630.92</v>
+        <v>177747.35</v>
       </c>
       <c r="C10" t="n">
-        <v>178136.02</v>
+        <v>178941.83</v>
       </c>
       <c r="D10" t="n">
-        <v>179647.92</v>
+        <v>174100.35</v>
       </c>
       <c r="E10" t="n">
-        <v>178475.05</v>
+        <v>177943.37</v>
       </c>
       <c r="F10" t="n">
-        <v>179996.64</v>
+        <v>178490.71</v>
       </c>
       <c r="G10" t="n">
-        <v>179562.25</v>
-      </c>
-      <c r="H10" t="n">
-        <v>179555.89</v>
-      </c>
-      <c r="I10" t="n">
-        <v>177887.91</v>
-      </c>
-      <c r="J10" t="n">
-        <v>179240.22</v>
-      </c>
-      <c r="K10" t="n">
-        <v>180651.16</v>
-      </c>
-      <c r="L10" t="n">
-        <v>176458.93</v>
-      </c>
-      <c r="M10" t="n">
-        <v>177747.35</v>
+        <v>181783.3</v>
       </c>
     </row>
     <row r="11">
@@ -889,40 +697,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16550.17</v>
+        <v>1962.89</v>
       </c>
       <c r="C11" t="n">
-        <v>16528.16</v>
+        <v>1962.62</v>
       </c>
       <c r="D11" t="n">
-        <v>16531.47</v>
+        <v>1890.93</v>
       </c>
       <c r="E11" t="n">
-        <v>16525.09</v>
+        <v>1964.38</v>
       </c>
       <c r="F11" t="n">
-        <v>16620.49</v>
+        <v>1963.71</v>
       </c>
       <c r="G11" t="n">
-        <v>16642.97</v>
-      </c>
-      <c r="H11" t="n">
-        <v>16621.15</v>
-      </c>
-      <c r="I11" t="n">
-        <v>16606.66</v>
-      </c>
-      <c r="J11" t="n">
-        <v>16516.62</v>
-      </c>
-      <c r="K11" t="n">
-        <v>1964.31</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1962.77</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1962.89</v>
+        <v>1958.55</v>
       </c>
     </row>
     <row r="12">
@@ -932,40 +722,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1220.74</v>
+        <v>1222.25</v>
       </c>
       <c r="C12" t="n">
-        <v>1214.03</v>
+        <v>1215.34</v>
       </c>
       <c r="D12" t="n">
-        <v>1215.37</v>
+        <v>1175.7</v>
       </c>
       <c r="E12" t="n">
-        <v>1212.57</v>
+        <v>1224.2</v>
       </c>
       <c r="F12" t="n">
-        <v>1217.27</v>
+        <v>1214.73</v>
       </c>
       <c r="G12" t="n">
-        <v>1222.71</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1211.92</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1213.76</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1223.18</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1220.4</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1217.93</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1222.25</v>
+        <v>1213.34</v>
       </c>
     </row>
     <row r="13">
@@ -975,40 +747,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15021.03</v>
+        <v>14873.4</v>
       </c>
       <c r="C13" t="n">
-        <v>15001.71</v>
+        <v>14872.45</v>
       </c>
       <c r="D13" t="n">
-        <v>15014.6</v>
+        <v>14329.24</v>
       </c>
       <c r="E13" t="n">
-        <v>15023.41</v>
+        <v>14888.64</v>
       </c>
       <c r="F13" t="n">
-        <v>15029.43</v>
+        <v>14848.03</v>
       </c>
       <c r="G13" t="n">
-        <v>15031.46</v>
-      </c>
-      <c r="H13" t="n">
-        <v>15015.25</v>
-      </c>
-      <c r="I13" t="n">
-        <v>14968.2</v>
-      </c>
-      <c r="J13" t="n">
-        <v>15010.26</v>
-      </c>
-      <c r="K13" t="n">
-        <v>14972.88</v>
-      </c>
-      <c r="L13" t="n">
-        <v>14829.85</v>
-      </c>
-      <c r="M13" t="n">
-        <v>14873.4</v>
+        <v>14883.08</v>
       </c>
     </row>
     <row r="14">
@@ -1018,40 +772,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>342394.97</v>
+        <v>342993.6</v>
       </c>
       <c r="C14" t="n">
-        <v>343069.22</v>
+        <v>362371.58</v>
       </c>
       <c r="D14" t="n">
-        <v>301798.69</v>
+        <v>340762.34</v>
       </c>
       <c r="E14" t="n">
-        <v>302250.16</v>
+        <v>353492.62</v>
       </c>
       <c r="F14" t="n">
-        <v>272267.87</v>
+        <v>353461.59</v>
       </c>
       <c r="G14" t="n">
-        <v>183576.59</v>
-      </c>
-      <c r="H14" t="n">
-        <v>184480.14</v>
-      </c>
-      <c r="I14" t="n">
-        <v>183587.63</v>
-      </c>
-      <c r="J14" t="n">
-        <v>163445.5</v>
-      </c>
-      <c r="K14" t="n">
-        <v>212718.87</v>
-      </c>
-      <c r="L14" t="n">
-        <v>253384.21</v>
-      </c>
-      <c r="M14" t="n">
-        <v>342993.6</v>
+        <v>357440.37</v>
       </c>
     </row>
     <row r="15">
@@ -1061,40 +797,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>145795.8</v>
+        <v>179868.67</v>
       </c>
       <c r="C15" t="n">
-        <v>162896.96</v>
+        <v>179828.43</v>
       </c>
       <c r="D15" t="n">
-        <v>169012.19</v>
+        <v>179700.47</v>
       </c>
       <c r="E15" t="n">
-        <v>168917.55</v>
+        <v>195796.85</v>
       </c>
       <c r="F15" t="n">
-        <v>175294.58</v>
+        <v>213839.61</v>
       </c>
       <c r="G15" t="n">
-        <v>175128.15</v>
-      </c>
-      <c r="H15" t="n">
-        <v>188354.36</v>
-      </c>
-      <c r="I15" t="n">
-        <v>188242.86</v>
-      </c>
-      <c r="J15" t="n">
-        <v>188188.6</v>
-      </c>
-      <c r="K15" t="n">
-        <v>188249.79</v>
-      </c>
-      <c r="L15" t="n">
-        <v>179914.19</v>
-      </c>
-      <c r="M15" t="n">
-        <v>179868.67</v>
+        <v>213964.81</v>
       </c>
     </row>
     <row r="16">
@@ -1104,40 +822,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>80.70999999999999</v>
+        <v>102.36</v>
       </c>
       <c r="C16" t="n">
-        <v>82.77</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>85.62</v>
+        <v>88.68000000000001</v>
       </c>
       <c r="E16" t="n">
-        <v>86.55</v>
+        <v>88.94</v>
       </c>
       <c r="F16" t="n">
-        <v>93.79000000000001</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>97.02</v>
-      </c>
-      <c r="H16" t="n">
-        <v>93.51000000000001</v>
-      </c>
-      <c r="I16" t="n">
-        <v>84.95999999999999</v>
-      </c>
-      <c r="J16" t="n">
-        <v>86.84</v>
-      </c>
-      <c r="K16" t="n">
-        <v>90.91</v>
-      </c>
-      <c r="L16" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="M16" t="n">
-        <v>102.36</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -1147,38 +847,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>350576.1</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>350589.28</v>
+      </c>
+      <c r="C17" t="n">
+        <v>348603.96</v>
+      </c>
       <c r="D17" t="n">
-        <v>349162.74</v>
+        <v>336950.69</v>
       </c>
       <c r="E17" t="n">
-        <v>350112.13</v>
+        <v>350524.86</v>
       </c>
       <c r="F17" t="n">
-        <v>350143.45</v>
+        <v>348343.01</v>
       </c>
       <c r="G17" t="n">
-        <v>350065.56</v>
-      </c>
-      <c r="H17" t="n">
-        <v>349603.1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>349512.15</v>
-      </c>
-      <c r="J17" t="n">
-        <v>348460.02</v>
-      </c>
-      <c r="K17" t="n">
-        <v>349837.51</v>
-      </c>
-      <c r="L17" t="n">
-        <v>349412.79</v>
-      </c>
-      <c r="M17" t="n">
-        <v>350589.28</v>
+        <v>349558.92</v>
       </c>
     </row>
     <row r="18">
@@ -1188,38 +872,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>125184.6</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>125210.48</v>
+      </c>
+      <c r="C18" t="n">
+        <v>125747.46</v>
+      </c>
       <c r="D18" t="n">
-        <v>125403.64</v>
+        <v>121020.38</v>
       </c>
       <c r="E18" t="n">
-        <v>125451.1</v>
+        <v>125464</v>
       </c>
       <c r="F18" t="n">
-        <v>125649.65</v>
+        <v>125581.05</v>
       </c>
       <c r="G18" t="n">
-        <v>125893.72</v>
-      </c>
-      <c r="H18" t="n">
-        <v>125308.5</v>
-      </c>
-      <c r="I18" t="n">
-        <v>125281.54</v>
-      </c>
-      <c r="J18" t="n">
-        <v>124894.21</v>
-      </c>
-      <c r="K18" t="n">
-        <v>125421.19</v>
-      </c>
-      <c r="L18" t="n">
-        <v>125296.46</v>
-      </c>
-      <c r="M18" t="n">
-        <v>125210.48</v>
+        <v>125472.82</v>
       </c>
     </row>
     <row r="19">
@@ -1231,7 +899,9 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
@@ -1244,24 +914,6 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1270,38 +922,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>255598.38</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>334830.92</v>
+      </c>
+      <c r="C20" t="n">
+        <v>334996.15</v>
+      </c>
       <c r="D20" t="n">
-        <v>259843.63</v>
+        <v>322886.68</v>
       </c>
       <c r="E20" t="n">
-        <v>279104.56</v>
+        <v>335295.43</v>
       </c>
       <c r="F20" t="n">
-        <v>291124.23</v>
+        <v>348550.94</v>
       </c>
       <c r="G20" t="n">
-        <v>291201.89</v>
-      </c>
-      <c r="H20" t="n">
-        <v>291103.71</v>
-      </c>
-      <c r="I20" t="n">
-        <v>290436.9</v>
-      </c>
-      <c r="J20" t="n">
-        <v>291178.13</v>
-      </c>
-      <c r="K20" t="n">
-        <v>290563.49</v>
-      </c>
-      <c r="L20" t="n">
-        <v>311520.35</v>
-      </c>
-      <c r="M20" t="n">
-        <v>334830.92</v>
+        <v>362353</v>
       </c>
     </row>
     <row r="21">
@@ -1311,38 +947,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>251419.77</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>313992.72</v>
+      </c>
+      <c r="C21" t="n">
+        <v>313895.44</v>
+      </c>
       <c r="D21" t="n">
-        <v>257581.53</v>
+        <v>302484.97</v>
       </c>
       <c r="E21" t="n">
-        <v>268190.37</v>
+        <v>314350.28</v>
       </c>
       <c r="F21" t="n">
-        <v>269200.45</v>
+        <v>328275.87</v>
       </c>
       <c r="G21" t="n">
-        <v>264788.68</v>
-      </c>
-      <c r="H21" t="n">
-        <v>264044.62</v>
-      </c>
-      <c r="I21" t="n">
-        <v>274282.59</v>
-      </c>
-      <c r="J21" t="n">
-        <v>273880.59</v>
-      </c>
-      <c r="K21" t="n">
-        <v>274121.86</v>
-      </c>
-      <c r="L21" t="n">
-        <v>292334.92</v>
-      </c>
-      <c r="M21" t="n">
-        <v>313992.72</v>
+        <v>339270.2</v>
       </c>
     </row>
     <row r="22">
@@ -1352,38 +972,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>246329.97</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>255275.24</v>
+      </c>
+      <c r="C22" t="n">
+        <v>256188.12</v>
+      </c>
       <c r="D22" t="n">
-        <v>250628.79</v>
+        <v>246937.15</v>
       </c>
       <c r="E22" t="n">
-        <v>270209.47</v>
+        <v>251029.65</v>
       </c>
       <c r="F22" t="n">
-        <v>266730.46</v>
+        <v>261865.72</v>
       </c>
       <c r="G22" t="n">
-        <v>269182.24</v>
-      </c>
-      <c r="H22" t="n">
-        <v>268726.27</v>
-      </c>
-      <c r="I22" t="n">
-        <v>265365</v>
-      </c>
-      <c r="J22" t="n">
-        <v>265583.69</v>
-      </c>
-      <c r="K22" t="n">
-        <v>265933.02</v>
-      </c>
-      <c r="L22" t="n">
-        <v>261601.65</v>
-      </c>
-      <c r="M22" t="n">
-        <v>255275.24</v>
+        <v>271112.23</v>
       </c>
     </row>
     <row r="23">
@@ -1393,40 +997,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>352513</v>
+        <v>381019.16</v>
       </c>
       <c r="C23" t="n">
-        <v>369060.26</v>
+        <v>368110.72</v>
       </c>
       <c r="D23" t="n">
-        <v>376200.02</v>
+        <v>355861.16</v>
       </c>
       <c r="E23" t="n">
-        <v>376887.73</v>
+        <v>346930.08</v>
       </c>
       <c r="F23" t="n">
-        <v>380797.21</v>
+        <v>347177.2</v>
       </c>
       <c r="G23" t="n">
-        <v>380119.21</v>
-      </c>
-      <c r="H23" t="n">
-        <v>381044.16</v>
-      </c>
-      <c r="I23" t="n">
-        <v>380237.02</v>
-      </c>
-      <c r="J23" t="n">
-        <v>380491.17</v>
-      </c>
-      <c r="K23" t="n">
-        <v>380376.28</v>
-      </c>
-      <c r="L23" t="n">
-        <v>381185.93</v>
-      </c>
-      <c r="M23" t="n">
-        <v>381019.16</v>
+        <v>340269.27</v>
       </c>
     </row>
     <row r="24">
@@ -1436,40 +1022,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>120873.18</v>
+        <v>61201.21</v>
       </c>
       <c r="C24" t="n">
-        <v>120941.11</v>
+        <v>61122.36</v>
       </c>
       <c r="D24" t="n">
-        <v>61273.69</v>
+        <v>58712.66</v>
       </c>
       <c r="E24" t="n">
-        <v>60994.39</v>
+        <v>61282.69</v>
       </c>
       <c r="F24" t="n">
-        <v>61147.12</v>
+        <v>61310.61</v>
       </c>
       <c r="G24" t="n">
-        <v>61180.8</v>
-      </c>
-      <c r="H24" t="n">
-        <v>61290.35</v>
-      </c>
-      <c r="I24" t="n">
-        <v>61224.78</v>
-      </c>
-      <c r="J24" t="n">
-        <v>61168.36</v>
-      </c>
-      <c r="K24" t="n">
-        <v>61179.83</v>
-      </c>
-      <c r="L24" t="n">
-        <v>60979.44</v>
-      </c>
-      <c r="M24" t="n">
-        <v>61201.21</v>
+        <v>61036.69</v>
       </c>
     </row>
     <row r="25">
@@ -1479,40 +1047,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50748.5</v>
+        <v>45828.92</v>
       </c>
       <c r="C25" t="n">
-        <v>50811.18</v>
+        <v>45817.01</v>
       </c>
       <c r="D25" t="n">
-        <v>45805.84</v>
+        <v>44116.44</v>
       </c>
       <c r="E25" t="n">
-        <v>45749.98</v>
+        <v>45868.81</v>
       </c>
       <c r="F25" t="n">
-        <v>45836.52</v>
+        <v>45896.43</v>
       </c>
       <c r="G25" t="n">
-        <v>45737.12</v>
-      </c>
-      <c r="H25" t="n">
-        <v>45937.92</v>
-      </c>
-      <c r="I25" t="n">
-        <v>45856.32</v>
-      </c>
-      <c r="J25" t="n">
-        <v>45847.69</v>
-      </c>
-      <c r="K25" t="n">
-        <v>45848.71</v>
-      </c>
-      <c r="L25" t="n">
-        <v>45879.3</v>
-      </c>
-      <c r="M25" t="n">
-        <v>45828.92</v>
+        <v>45763.91</v>
       </c>
     </row>
     <row r="26">
@@ -1522,40 +1072,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10488.52</v>
+        <v>10469.75</v>
       </c>
       <c r="C26" t="n">
-        <v>10478.69</v>
+        <v>10463.61</v>
       </c>
       <c r="D26" t="n">
-        <v>10498.98</v>
+        <v>10117.3</v>
       </c>
       <c r="E26" t="n">
-        <v>10481.65</v>
+        <v>10466.06</v>
       </c>
       <c r="F26" t="n">
-        <v>10506.95</v>
+        <v>10481.81</v>
       </c>
       <c r="G26" t="n">
-        <v>10477.96</v>
-      </c>
-      <c r="H26" t="n">
-        <v>10484.33</v>
-      </c>
-      <c r="I26" t="n">
-        <v>10461.45</v>
-      </c>
-      <c r="J26" t="n">
-        <v>10469.68</v>
-      </c>
-      <c r="K26" t="n">
-        <v>10505.41</v>
-      </c>
-      <c r="L26" t="n">
-        <v>10501.11</v>
-      </c>
-      <c r="M26" t="n">
-        <v>10469.75</v>
+        <v>10461.95</v>
       </c>
     </row>
     <row r="27">
@@ -1565,40 +1097,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>128297.94</v>
+        <v>118234.57</v>
       </c>
       <c r="C27" t="n">
-        <v>128323.86</v>
+        <v>113265.97</v>
       </c>
       <c r="D27" t="n">
-        <v>128352.45</v>
+        <v>109118.1</v>
       </c>
       <c r="E27" t="n">
-        <v>128307.03</v>
+        <v>112835.97</v>
       </c>
       <c r="F27" t="n">
-        <v>127868.01</v>
+        <v>123007.4</v>
       </c>
       <c r="G27" t="n">
-        <v>128082.64</v>
-      </c>
-      <c r="H27" t="n">
-        <v>128022.15</v>
-      </c>
-      <c r="I27" t="n">
-        <v>127868.28</v>
-      </c>
-      <c r="J27" t="n">
-        <v>128324.86</v>
-      </c>
-      <c r="K27" t="n">
-        <v>128310.74</v>
-      </c>
-      <c r="L27" t="n">
-        <v>117978.96</v>
-      </c>
-      <c r="M27" t="n">
-        <v>118234.57</v>
+        <v>123316.48</v>
       </c>
     </row>
     <row r="28">
@@ -1608,40 +1122,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174459.32</v>
+        <v>180100.14</v>
       </c>
       <c r="C28" t="n">
-        <v>174240</v>
+        <v>179826.23</v>
       </c>
       <c r="D28" t="n">
-        <v>150114.51</v>
+        <v>173355.71</v>
       </c>
       <c r="E28" t="n">
-        <v>150023.83</v>
+        <v>179881.83</v>
       </c>
       <c r="F28" t="n">
-        <v>149766.24</v>
+        <v>179388.25</v>
       </c>
       <c r="G28" t="n">
-        <v>149598.71</v>
-      </c>
-      <c r="H28" t="n">
-        <v>159240.98</v>
-      </c>
-      <c r="I28" t="n">
-        <v>160110.46</v>
-      </c>
-      <c r="J28" t="n">
-        <v>160155</v>
-      </c>
-      <c r="K28" t="n">
-        <v>179748.62</v>
-      </c>
-      <c r="L28" t="n">
-        <v>179770.99</v>
-      </c>
-      <c r="M28" t="n">
-        <v>180100.14</v>
+        <v>199865.85</v>
       </c>
     </row>
     <row r="29">
@@ -1651,40 +1147,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>53451.33</v>
+        <v>77511.5</v>
       </c>
       <c r="C29" t="n">
-        <v>56055.15</v>
+        <v>77434.94</v>
       </c>
       <c r="D29" t="n">
-        <v>72044.11</v>
+        <v>72649.25999999999</v>
       </c>
       <c r="E29" t="n">
-        <v>75429.08</v>
+        <v>74552.5</v>
       </c>
       <c r="F29" t="n">
-        <v>74417.98</v>
+        <v>75907.45</v>
       </c>
       <c r="G29" t="n">
-        <v>74715.89</v>
-      </c>
-      <c r="H29" t="n">
-        <v>88593.48</v>
-      </c>
-      <c r="I29" t="n">
-        <v>88751.39</v>
-      </c>
-      <c r="J29" t="n">
-        <v>88728.46000000001</v>
-      </c>
-      <c r="K29" t="n">
-        <v>88516.60000000001</v>
-      </c>
-      <c r="L29" t="n">
-        <v>87989.52</v>
-      </c>
-      <c r="M29" t="n">
-        <v>77511.5</v>
+        <v>80459.62</v>
       </c>
     </row>
     <row r="30">
@@ -1694,40 +1172,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2811.8</v>
+        <v>3222.66</v>
       </c>
       <c r="C30" t="n">
-        <v>2833.91</v>
+        <v>3142.4</v>
       </c>
       <c r="D30" t="n">
-        <v>3239.67</v>
+        <v>3033.66</v>
       </c>
       <c r="E30" t="n">
-        <v>3239.29</v>
+        <v>3142.99</v>
       </c>
       <c r="F30" t="n">
-        <v>3241.93</v>
+        <v>3148.56</v>
       </c>
       <c r="G30" t="n">
-        <v>3226.3</v>
-      </c>
-      <c r="H30" t="n">
-        <v>3208.76</v>
-      </c>
-      <c r="I30" t="n">
-        <v>3222.26</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3230.21</v>
-      </c>
-      <c r="K30" t="n">
-        <v>3240.37</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3217.77</v>
-      </c>
-      <c r="M30" t="n">
-        <v>3222.66</v>
+        <v>3127.61</v>
       </c>
     </row>
     <row r="31">
@@ -1737,40 +1197,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62561.72</v>
+        <v>72127.98</v>
       </c>
       <c r="C31" t="n">
-        <v>71093.2</v>
+        <v>71992.27</v>
       </c>
       <c r="D31" t="n">
-        <v>74990.45</v>
+        <v>69479.28999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>82790.83</v>
+        <v>75534.97</v>
       </c>
       <c r="F31" t="n">
-        <v>82938.10000000001</v>
+        <v>75377.05</v>
       </c>
       <c r="G31" t="n">
-        <v>82864.03</v>
-      </c>
-      <c r="H31" t="n">
-        <v>83054.41</v>
-      </c>
-      <c r="I31" t="n">
-        <v>82927.42999999999</v>
-      </c>
-      <c r="J31" t="n">
-        <v>83117.86</v>
-      </c>
-      <c r="K31" t="n">
-        <v>76021.39999999999</v>
-      </c>
-      <c r="L31" t="n">
-        <v>73245.67</v>
-      </c>
-      <c r="M31" t="n">
-        <v>72127.98</v>
+        <v>81559.87</v>
       </c>
     </row>
     <row r="32">
@@ -1780,40 +1222,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13847.78</v>
+        <v>13975.33</v>
       </c>
       <c r="C32" t="n">
-        <v>13990.63</v>
+        <v>13979.65</v>
       </c>
       <c r="D32" t="n">
-        <v>13802.27</v>
+        <v>13434.17</v>
       </c>
       <c r="E32" t="n">
-        <v>13850.53</v>
+        <v>13895.02</v>
       </c>
       <c r="F32" t="n">
-        <v>13895</v>
+        <v>14020.9</v>
       </c>
       <c r="G32" t="n">
-        <v>13970.38</v>
-      </c>
-      <c r="H32" t="n">
-        <v>13866.35</v>
-      </c>
-      <c r="I32" t="n">
-        <v>13855.51</v>
-      </c>
-      <c r="J32" t="n">
-        <v>13842.71</v>
-      </c>
-      <c r="K32" t="n">
-        <v>13850.76</v>
-      </c>
-      <c r="L32" t="n">
-        <v>13807.93</v>
-      </c>
-      <c r="M32" t="n">
-        <v>13975.33</v>
+        <v>13834.02</v>
       </c>
     </row>
     <row r="33">
@@ -1823,40 +1247,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>46332.05</v>
+        <v>46413.03</v>
       </c>
       <c r="C33" t="n">
-        <v>46354.95</v>
+        <v>46336.15</v>
       </c>
       <c r="D33" t="n">
-        <v>46378.19</v>
+        <v>44695.63</v>
       </c>
       <c r="E33" t="n">
-        <v>46389.78</v>
+        <v>46262.59</v>
       </c>
       <c r="F33" t="n">
-        <v>46346.66</v>
+        <v>46232.44</v>
       </c>
       <c r="G33" t="n">
-        <v>46305.92</v>
-      </c>
-      <c r="H33" t="n">
-        <v>46301.28</v>
-      </c>
-      <c r="I33" t="n">
-        <v>46382.85</v>
-      </c>
-      <c r="J33" t="n">
-        <v>46286.23</v>
-      </c>
-      <c r="K33" t="n">
-        <v>46396.74</v>
-      </c>
-      <c r="L33" t="n">
-        <v>46337.82</v>
-      </c>
-      <c r="M33" t="n">
-        <v>46413.03</v>
+        <v>46225.69</v>
       </c>
     </row>
     <row r="34">
@@ -1866,38 +1272,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>49829.03</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
+        <v>119717.39</v>
+      </c>
+      <c r="C34" t="n">
+        <v>120058.18</v>
+      </c>
       <c r="D34" t="n">
-        <v>120176.4</v>
+        <v>115855.29</v>
       </c>
       <c r="E34" t="n">
-        <v>119717.05</v>
+        <v>119782.31</v>
       </c>
       <c r="F34" t="n">
-        <v>119725.44</v>
+        <v>119929.74</v>
       </c>
       <c r="G34" t="n">
-        <v>120025.54</v>
-      </c>
-      <c r="H34" t="n">
-        <v>120316.38</v>
-      </c>
-      <c r="I34" t="n">
-        <v>119735.5</v>
-      </c>
-      <c r="J34" t="n">
-        <v>120266.09</v>
-      </c>
-      <c r="K34" t="n">
-        <v>119780.14</v>
-      </c>
-      <c r="L34" t="n">
-        <v>120013.95</v>
-      </c>
-      <c r="M34" t="n">
-        <v>119717.39</v>
+        <v>120038.28</v>
       </c>
     </row>
     <row r="35">
@@ -1907,40 +1297,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>214583.84</v>
+        <v>214316.94</v>
       </c>
       <c r="C35" t="n">
-        <v>214408.32</v>
+        <v>214321.87</v>
       </c>
       <c r="D35" t="n">
-        <v>214351.74</v>
+        <v>206789.45</v>
       </c>
       <c r="E35" t="n">
-        <v>214441.97</v>
+        <v>215148</v>
       </c>
       <c r="F35" t="n">
-        <v>214543.76</v>
+        <v>214807.9</v>
       </c>
       <c r="G35" t="n">
-        <v>214179.05</v>
-      </c>
-      <c r="H35" t="n">
-        <v>214916.92</v>
-      </c>
-      <c r="I35" t="n">
-        <v>215009.96</v>
-      </c>
-      <c r="J35" t="n">
-        <v>214397.84</v>
-      </c>
-      <c r="K35" t="n">
-        <v>214341.43</v>
-      </c>
-      <c r="L35" t="n">
-        <v>214716.34</v>
-      </c>
-      <c r="M35" t="n">
-        <v>214316.94</v>
+        <v>214165.04</v>
       </c>
     </row>
     <row r="36">
@@ -1950,40 +1322,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>60645.8</v>
+        <v>60573.07</v>
       </c>
       <c r="C36" t="n">
-        <v>60516.93</v>
+        <v>60487.08</v>
       </c>
       <c r="D36" t="n">
-        <v>60508.81</v>
+        <v>58347.49</v>
       </c>
       <c r="E36" t="n">
-        <v>60430.14</v>
+        <v>60745.65</v>
       </c>
       <c r="F36" t="n">
-        <v>60640.63</v>
+        <v>60404.15</v>
       </c>
       <c r="G36" t="n">
-        <v>60436.48</v>
-      </c>
-      <c r="H36" t="n">
-        <v>60582.73</v>
-      </c>
-      <c r="I36" t="n">
-        <v>60572.81</v>
-      </c>
-      <c r="J36" t="n">
-        <v>60720.62</v>
-      </c>
-      <c r="K36" t="n">
-        <v>60408.96</v>
-      </c>
-      <c r="L36" t="n">
-        <v>60505.9</v>
-      </c>
-      <c r="M36" t="n">
-        <v>60573.07</v>
+        <v>86713.16</v>
       </c>
     </row>
     <row r="37">
@@ -1993,40 +1347,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153737.81</v>
+        <v>153705.57</v>
       </c>
       <c r="C37" t="n">
-        <v>154135.23</v>
+        <v>153793.01</v>
       </c>
       <c r="D37" t="n">
-        <v>153830.03</v>
+        <v>148103.12</v>
       </c>
       <c r="E37" t="n">
-        <v>154029.71</v>
+        <v>153946.76</v>
       </c>
       <c r="F37" t="n">
-        <v>154174.72</v>
+        <v>153677.98</v>
       </c>
       <c r="G37" t="n">
-        <v>153622.16</v>
-      </c>
-      <c r="H37" t="n">
-        <v>153737.52</v>
-      </c>
-      <c r="I37" t="n">
-        <v>154067.1</v>
-      </c>
-      <c r="J37" t="n">
-        <v>154050.7</v>
-      </c>
-      <c r="K37" t="n">
-        <v>153799.53</v>
-      </c>
-      <c r="L37" t="n">
-        <v>153934.3</v>
-      </c>
-      <c r="M37" t="n">
-        <v>153705.57</v>
+        <v>154040.54</v>
       </c>
     </row>
     <row r="38">
@@ -2036,305 +1372,147 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>108208.8</v>
+        <v>106119.83</v>
       </c>
       <c r="C38" t="n">
-        <v>108402.05</v>
+        <v>100478.29</v>
       </c>
       <c r="D38" t="n">
-        <v>102093.3</v>
+        <v>96914.56</v>
       </c>
       <c r="E38" t="n">
-        <v>100265.96</v>
+        <v>101651.91</v>
       </c>
       <c r="F38" t="n">
-        <v>107727.64</v>
+        <v>100809.23</v>
       </c>
       <c r="G38" t="n">
-        <v>109223.4</v>
-      </c>
-      <c r="H38" t="n">
-        <v>109394.13</v>
-      </c>
-      <c r="I38" t="n">
-        <v>109241.9</v>
-      </c>
-      <c r="J38" t="n">
-        <v>109629.68</v>
-      </c>
-      <c r="K38" t="n">
-        <v>109333.6</v>
-      </c>
-      <c r="L38" t="n">
-        <v>109631.85</v>
-      </c>
-      <c r="M38" t="n">
-        <v>106119.83</v>
+        <v>109583.36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1986685.86</v>
+        <v>738428.88</v>
       </c>
       <c r="C39" t="n">
-        <v>1988073.21</v>
+        <v>736776.49</v>
       </c>
       <c r="D39" t="n">
-        <v>1988278.15</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+        <v>636739.52</v>
+      </c>
+      <c r="E39" t="n">
+        <v>661765.77</v>
+      </c>
+      <c r="F39" t="n">
+        <v>658857.95</v>
+      </c>
+      <c r="G39" t="n">
+        <v>660947.95</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659915.41</v>
+        <v>198814.4</v>
       </c>
       <c r="C40" t="n">
-        <v>661651.3199999999</v>
+        <v>197612.32</v>
       </c>
       <c r="D40" t="n">
-        <v>736348.5600000001</v>
+        <v>190414.76</v>
       </c>
       <c r="E40" t="n">
-        <v>734681.52</v>
+        <v>197922</v>
       </c>
       <c r="F40" t="n">
-        <v>736071.55</v>
+        <v>198311.64</v>
       </c>
       <c r="G40" t="n">
-        <v>735243.4399999999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>734556.4300000001</v>
-      </c>
-      <c r="I40" t="n">
-        <v>738162.22</v>
-      </c>
-      <c r="J40" t="n">
-        <v>736818.08</v>
-      </c>
-      <c r="K40" t="n">
-        <v>736379.66</v>
-      </c>
-      <c r="L40" t="n">
-        <v>738004.27</v>
-      </c>
-      <c r="M40" t="n">
-        <v>738428.88</v>
+        <v>198001.11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>197661.1</v>
+        <v>80071.74000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>197729.46</v>
+        <v>79982.50999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>198139.46</v>
+        <v>77182.63</v>
       </c>
       <c r="E41" t="n">
-        <v>197227.67</v>
+        <v>80068.27</v>
       </c>
       <c r="F41" t="n">
-        <v>197865.52</v>
+        <v>79951.50999999999</v>
       </c>
       <c r="G41" t="n">
-        <v>197751.84</v>
-      </c>
-      <c r="H41" t="n">
-        <v>197355.92</v>
-      </c>
-      <c r="I41" t="n">
-        <v>198712.24</v>
-      </c>
-      <c r="J41" t="n">
-        <v>197438.15</v>
-      </c>
-      <c r="K41" t="n">
-        <v>198020.46</v>
-      </c>
-      <c r="L41" t="n">
-        <v>198599</v>
-      </c>
-      <c r="M41" t="n">
-        <v>198814.4</v>
+        <v>80092.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79944.42</v>
+        <v>145854.09</v>
       </c>
       <c r="C42" t="n">
-        <v>80133.28</v>
+        <v>145686.88</v>
       </c>
       <c r="D42" t="n">
-        <v>79945.84</v>
+        <v>138592.42</v>
       </c>
       <c r="E42" t="n">
-        <v>79975.08</v>
+        <v>143461.07</v>
       </c>
       <c r="F42" t="n">
-        <v>79918.24000000001</v>
+        <v>147597.78</v>
       </c>
       <c r="G42" t="n">
-        <v>79994.13</v>
-      </c>
-      <c r="H42" t="n">
-        <v>80022.25</v>
-      </c>
-      <c r="I42" t="n">
-        <v>80111.66</v>
-      </c>
-      <c r="J42" t="n">
-        <v>79994.22</v>
-      </c>
-      <c r="K42" t="n">
-        <v>79995.10000000001</v>
-      </c>
-      <c r="L42" t="n">
-        <v>80097.24000000001</v>
-      </c>
-      <c r="M42" t="n">
-        <v>80071.74000000001</v>
+        <v>150648.33</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123590.2</v>
+        <v>5834163.5</v>
       </c>
       <c r="C43" t="n">
-        <v>123591.93</v>
+        <v>5827475.08</v>
       </c>
       <c r="D43" t="n">
-        <v>123592.33</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>avg</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>184385.27</v>
-      </c>
-      <c r="C44" t="n">
-        <v>185841.75</v>
-      </c>
-      <c r="D44" t="n">
-        <v>187380.59</v>
-      </c>
-      <c r="E44" t="n">
-        <v>146370.29</v>
-      </c>
-      <c r="F44" t="n">
-        <v>146898.83</v>
-      </c>
-      <c r="G44" t="n">
-        <v>144574.32</v>
-      </c>
-      <c r="H44" t="n">
-        <v>144901.52</v>
-      </c>
-      <c r="I44" t="n">
-        <v>144626.16</v>
-      </c>
-      <c r="J44" t="n">
-        <v>142320.61</v>
-      </c>
-      <c r="K44" t="n">
-        <v>143553.1</v>
-      </c>
-      <c r="L44" t="n">
-        <v>142930.32</v>
-      </c>
-      <c r="M44" t="n">
-        <v>145854.09</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>7744181.33</v>
-      </c>
-      <c r="C45" t="n">
-        <v>6504461.37</v>
-      </c>
-      <c r="D45" t="n">
-        <v>7869984.98</v>
-      </c>
-      <c r="E45" t="n">
-        <v>5854811.7</v>
-      </c>
-      <c r="F45" t="n">
-        <v>5875953.14</v>
-      </c>
-      <c r="G45" t="n">
-        <v>5782972.78</v>
-      </c>
-      <c r="H45" t="n">
-        <v>5796060.97</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5785046.3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5692824.38</v>
-      </c>
-      <c r="K45" t="n">
-        <v>5742124.04</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5717212.81</v>
-      </c>
-      <c r="M45" t="n">
-        <v>5834163.5</v>
+        <v>5543696.84</v>
+      </c>
+      <c r="E43" t="n">
+        <v>5738442.83</v>
+      </c>
+      <c r="F43" t="n">
+        <v>5903911.06</v>
+      </c>
+      <c r="G43" t="n">
+        <v>6025933.23</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:M45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>65113.68</v>
+      </c>
+      <c r="C2" t="n">
+        <v>65208.4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>65282.58</v>
+      </c>
+      <c r="E2" t="n">
+        <v>65037.03</v>
+      </c>
+      <c r="F2" t="n">
+        <v>64916.07</v>
+      </c>
+      <c r="G2" t="n">
+        <v>65148.29</v>
+      </c>
+      <c r="H2" t="n">
+        <v>65798.48</v>
+      </c>
+      <c r="I2" t="n">
+        <v>45609.88</v>
+      </c>
+      <c r="J2" t="n">
+        <v>45155.71</v>
+      </c>
+      <c r="K2" t="n">
+        <v>45713.67</v>
+      </c>
+      <c r="L2" t="n">
+        <v>45135.45</v>
+      </c>
+      <c r="M2" t="n">
         <v>45594.91</v>
-      </c>
-      <c r="C2" t="n">
-        <v>45500.42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>43866.84</v>
-      </c>
-      <c r="E2" t="n">
-        <v>45676.61</v>
-      </c>
-      <c r="F2" t="n">
-        <v>45718.64</v>
-      </c>
-      <c r="G2" t="n">
-        <v>45610.62</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>460076.59</v>
+      </c>
+      <c r="C3" t="n">
+        <v>432276.88</v>
+      </c>
+      <c r="D3" t="n">
+        <v>433065.87</v>
+      </c>
+      <c r="E3" t="n">
+        <v>474565.05</v>
+      </c>
+      <c r="F3" t="n">
+        <v>474734.03</v>
+      </c>
+      <c r="G3" t="n">
+        <v>474412.74</v>
+      </c>
+      <c r="H3" t="n">
+        <v>449756.54</v>
+      </c>
+      <c r="I3" t="n">
+        <v>450238.13</v>
+      </c>
+      <c r="J3" t="n">
+        <v>450982.83</v>
+      </c>
+      <c r="K3" t="n">
+        <v>450963.31</v>
+      </c>
+      <c r="L3" t="n">
+        <v>450476.24</v>
+      </c>
+      <c r="M3" t="n">
         <v>449894.05</v>
-      </c>
-      <c r="C3" t="n">
-        <v>450896.94</v>
-      </c>
-      <c r="D3" t="n">
-        <v>434789.91</v>
-      </c>
-      <c r="E3" t="n">
-        <v>451048.01</v>
-      </c>
-      <c r="F3" t="n">
-        <v>451327.27</v>
-      </c>
-      <c r="G3" t="n">
-        <v>469159.37</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>38928.01</v>
+      </c>
+      <c r="C4" t="n">
+        <v>49545.18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49683.68</v>
+      </c>
+      <c r="E4" t="n">
+        <v>49654.22</v>
+      </c>
+      <c r="F4" t="n">
+        <v>69458.35000000001</v>
+      </c>
+      <c r="G4" t="n">
+        <v>69216.97</v>
+      </c>
+      <c r="H4" t="n">
+        <v>69553.59</v>
+      </c>
+      <c r="I4" t="n">
+        <v>69462.82000000001</v>
+      </c>
+      <c r="J4" t="n">
+        <v>69448.49000000001</v>
+      </c>
+      <c r="K4" t="n">
+        <v>69535.37</v>
+      </c>
+      <c r="L4" t="n">
+        <v>69386.17</v>
+      </c>
+      <c r="M4" t="n">
         <v>69388.66</v>
-      </c>
-      <c r="C4" t="n">
-        <v>69382.28999999999</v>
-      </c>
-      <c r="D4" t="n">
-        <v>66900.34</v>
-      </c>
-      <c r="E4" t="n">
-        <v>69427.23</v>
-      </c>
-      <c r="F4" t="n">
-        <v>69485.13</v>
-      </c>
-      <c r="G4" t="n">
-        <v>69348.75999999999</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>36790.43</v>
+      </c>
+      <c r="C5" t="n">
+        <v>36852.77</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36740.02</v>
+      </c>
+      <c r="E5" t="n">
+        <v>36924.27</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36605.68</v>
+      </c>
+      <c r="G5" t="n">
+        <v>36669.13</v>
+      </c>
+      <c r="H5" t="n">
+        <v>36823.28</v>
+      </c>
+      <c r="I5" t="n">
+        <v>36760.33</v>
+      </c>
+      <c r="J5" t="n">
+        <v>36614.16</v>
+      </c>
+      <c r="K5" t="n">
+        <v>36704.99</v>
+      </c>
+      <c r="L5" t="n">
+        <v>36655.73</v>
+      </c>
+      <c r="M5" t="n">
         <v>36747.22</v>
-      </c>
-      <c r="C5" t="n">
-        <v>36856.87</v>
-      </c>
-      <c r="D5" t="n">
-        <v>35422.11</v>
-      </c>
-      <c r="E5" t="n">
-        <v>36781.44</v>
-      </c>
-      <c r="F5" t="n">
-        <v>36593.09</v>
-      </c>
-      <c r="G5" t="n">
-        <v>36940.3</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>99318.73</v>
+      </c>
+      <c r="C6" t="n">
+        <v>99171.28999999999</v>
+      </c>
+      <c r="D6" t="n">
+        <v>99240.85000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>99228.41</v>
+      </c>
+      <c r="F6" t="n">
+        <v>99512.39999999999</v>
+      </c>
+      <c r="G6" t="n">
+        <v>98910.73</v>
+      </c>
+      <c r="H6" t="n">
+        <v>99003.35000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>99546.85000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>99422.82000000001</v>
+      </c>
+      <c r="K6" t="n">
+        <v>98963.87</v>
+      </c>
+      <c r="L6" t="n">
+        <v>99416.28</v>
+      </c>
+      <c r="M6" t="n">
         <v>98818.37</v>
-      </c>
-      <c r="C6" t="n">
-        <v>99382.7</v>
-      </c>
-      <c r="D6" t="n">
-        <v>95580.71000000001</v>
-      </c>
-      <c r="E6" t="n">
-        <v>98780.86</v>
-      </c>
-      <c r="F6" t="n">
-        <v>98913.5</v>
-      </c>
-      <c r="G6" t="n">
-        <v>99622.67</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>119.06</v>
+      </c>
+      <c r="C7" t="n">
+        <v>114.95</v>
+      </c>
+      <c r="D7" t="n">
+        <v>110.83</v>
+      </c>
+      <c r="E7" t="n">
+        <v>113.45</v>
+      </c>
+      <c r="F7" t="n">
+        <v>111.05</v>
+      </c>
+      <c r="G7" t="n">
+        <v>111.83</v>
+      </c>
+      <c r="H7" t="n">
+        <v>111.69</v>
+      </c>
+      <c r="I7" t="n">
+        <v>109.66</v>
+      </c>
+      <c r="J7" t="n">
+        <v>108.35</v>
+      </c>
+      <c r="K7" t="n">
+        <v>102.6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>103.22</v>
+      </c>
+      <c r="M7" t="n">
         <v>102.52</v>
-      </c>
-      <c r="C7" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="D7" t="n">
-        <v>96.19</v>
-      </c>
-      <c r="E7" t="n">
-        <v>101.35</v>
-      </c>
-      <c r="F7" t="n">
-        <v>88.88</v>
-      </c>
-      <c r="G7" t="n">
-        <v>89.44</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>242684.39</v>
+      </c>
+      <c r="C8" t="n">
+        <v>243082.7</v>
+      </c>
+      <c r="D8" t="n">
+        <v>243003.64</v>
+      </c>
+      <c r="E8" t="n">
+        <v>241951.01</v>
+      </c>
+      <c r="F8" t="n">
+        <v>243136.47</v>
+      </c>
+      <c r="G8" t="n">
+        <v>242536.51</v>
+      </c>
+      <c r="H8" t="n">
+        <v>242319.86</v>
+      </c>
+      <c r="I8" t="n">
+        <v>242595.15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>171681.89</v>
+      </c>
+      <c r="K8" t="n">
+        <v>171529.91</v>
+      </c>
+      <c r="L8" t="n">
+        <v>94772.69</v>
+      </c>
+      <c r="M8" t="n">
         <v>96217.66</v>
-      </c>
-      <c r="C8" t="n">
-        <v>95045.59</v>
-      </c>
-      <c r="D8" t="n">
-        <v>92429.17999999999</v>
-      </c>
-      <c r="E8" t="n">
-        <v>96212.92999999999</v>
-      </c>
-      <c r="F8" t="n">
-        <v>94919.12</v>
-      </c>
-      <c r="G8" t="n">
-        <v>94933.37</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +803,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>220159.87</v>
+      </c>
+      <c r="C9" t="n">
+        <v>228455.66</v>
+      </c>
+      <c r="D9" t="n">
+        <v>256966.52</v>
+      </c>
+      <c r="E9" t="n">
+        <v>256867.03</v>
+      </c>
+      <c r="F9" t="n">
+        <v>256681.56</v>
+      </c>
+      <c r="G9" t="n">
+        <v>256818.34</v>
+      </c>
+      <c r="H9" t="n">
+        <v>256649.31</v>
+      </c>
+      <c r="I9" t="n">
+        <v>256742.18</v>
+      </c>
+      <c r="J9" t="n">
+        <v>256724.66</v>
+      </c>
+      <c r="K9" t="n">
+        <v>256810.59</v>
+      </c>
+      <c r="L9" t="n">
+        <v>256846.29</v>
+      </c>
+      <c r="M9" t="n">
         <v>256878.88</v>
-      </c>
-      <c r="C9" t="n">
-        <v>256589.93</v>
-      </c>
-      <c r="D9" t="n">
-        <v>247363.78</v>
-      </c>
-      <c r="E9" t="n">
-        <v>256667</v>
-      </c>
-      <c r="F9" t="n">
-        <v>361646.91</v>
-      </c>
-      <c r="G9" t="n">
-        <v>361623.38</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +846,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>179630.92</v>
+      </c>
+      <c r="C10" t="n">
+        <v>178136.02</v>
+      </c>
+      <c r="D10" t="n">
+        <v>179647.92</v>
+      </c>
+      <c r="E10" t="n">
+        <v>178475.05</v>
+      </c>
+      <c r="F10" t="n">
+        <v>179996.64</v>
+      </c>
+      <c r="G10" t="n">
+        <v>179562.25</v>
+      </c>
+      <c r="H10" t="n">
+        <v>179555.89</v>
+      </c>
+      <c r="I10" t="n">
+        <v>177887.91</v>
+      </c>
+      <c r="J10" t="n">
+        <v>179240.22</v>
+      </c>
+      <c r="K10" t="n">
+        <v>180651.16</v>
+      </c>
+      <c r="L10" t="n">
+        <v>176458.93</v>
+      </c>
+      <c r="M10" t="n">
         <v>177747.35</v>
-      </c>
-      <c r="C10" t="n">
-        <v>178941.83</v>
-      </c>
-      <c r="D10" t="n">
-        <v>174100.35</v>
-      </c>
-      <c r="E10" t="n">
-        <v>177943.37</v>
-      </c>
-      <c r="F10" t="n">
-        <v>178490.71</v>
-      </c>
-      <c r="G10" t="n">
-        <v>181783.3</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +889,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>16550.17</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16528.16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>16531.47</v>
+      </c>
+      <c r="E11" t="n">
+        <v>16525.09</v>
+      </c>
+      <c r="F11" t="n">
+        <v>16620.49</v>
+      </c>
+      <c r="G11" t="n">
+        <v>16642.97</v>
+      </c>
+      <c r="H11" t="n">
+        <v>16621.15</v>
+      </c>
+      <c r="I11" t="n">
+        <v>16606.66</v>
+      </c>
+      <c r="J11" t="n">
+        <v>16516.62</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1964.31</v>
+      </c>
+      <c r="L11" t="n">
+        <v>1962.77</v>
+      </c>
+      <c r="M11" t="n">
         <v>1962.89</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1962.62</v>
-      </c>
-      <c r="D11" t="n">
-        <v>1890.93</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1964.38</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1963.71</v>
-      </c>
-      <c r="G11" t="n">
-        <v>1958.55</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +932,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>1220.74</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1214.03</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1215.37</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1212.57</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1217.27</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1222.71</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1211.92</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1213.76</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1223.18</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1220.4</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1217.93</v>
+      </c>
+      <c r="M12" t="n">
         <v>1222.25</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1215.34</v>
-      </c>
-      <c r="D12" t="n">
-        <v>1175.7</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1224.2</v>
-      </c>
-      <c r="F12" t="n">
-        <v>1214.73</v>
-      </c>
-      <c r="G12" t="n">
-        <v>1213.34</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +975,40 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>15021.03</v>
+      </c>
+      <c r="C13" t="n">
+        <v>15001.71</v>
+      </c>
+      <c r="D13" t="n">
+        <v>15014.6</v>
+      </c>
+      <c r="E13" t="n">
+        <v>15023.41</v>
+      </c>
+      <c r="F13" t="n">
+        <v>15029.43</v>
+      </c>
+      <c r="G13" t="n">
+        <v>15031.46</v>
+      </c>
+      <c r="H13" t="n">
+        <v>15015.25</v>
+      </c>
+      <c r="I13" t="n">
+        <v>14968.2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>15010.26</v>
+      </c>
+      <c r="K13" t="n">
+        <v>14972.88</v>
+      </c>
+      <c r="L13" t="n">
+        <v>14829.85</v>
+      </c>
+      <c r="M13" t="n">
         <v>14873.4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>14872.45</v>
-      </c>
-      <c r="D13" t="n">
-        <v>14329.24</v>
-      </c>
-      <c r="E13" t="n">
-        <v>14888.64</v>
-      </c>
-      <c r="F13" t="n">
-        <v>14848.03</v>
-      </c>
-      <c r="G13" t="n">
-        <v>14883.08</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +1018,40 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>342394.97</v>
+      </c>
+      <c r="C14" t="n">
+        <v>343069.22</v>
+      </c>
+      <c r="D14" t="n">
+        <v>301798.69</v>
+      </c>
+      <c r="E14" t="n">
+        <v>302250.16</v>
+      </c>
+      <c r="F14" t="n">
+        <v>272267.87</v>
+      </c>
+      <c r="G14" t="n">
+        <v>183576.59</v>
+      </c>
+      <c r="H14" t="n">
+        <v>184480.14</v>
+      </c>
+      <c r="I14" t="n">
+        <v>183587.63</v>
+      </c>
+      <c r="J14" t="n">
+        <v>163445.5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>212718.87</v>
+      </c>
+      <c r="L14" t="n">
+        <v>253384.21</v>
+      </c>
+      <c r="M14" t="n">
         <v>342993.6</v>
-      </c>
-      <c r="C14" t="n">
-        <v>362371.58</v>
-      </c>
-      <c r="D14" t="n">
-        <v>340762.34</v>
-      </c>
-      <c r="E14" t="n">
-        <v>353492.62</v>
-      </c>
-      <c r="F14" t="n">
-        <v>353461.59</v>
-      </c>
-      <c r="G14" t="n">
-        <v>357440.37</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +1061,40 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>145795.8</v>
+      </c>
+      <c r="C15" t="n">
+        <v>162896.96</v>
+      </c>
+      <c r="D15" t="n">
+        <v>169012.19</v>
+      </c>
+      <c r="E15" t="n">
+        <v>168917.55</v>
+      </c>
+      <c r="F15" t="n">
+        <v>175294.58</v>
+      </c>
+      <c r="G15" t="n">
+        <v>175128.15</v>
+      </c>
+      <c r="H15" t="n">
+        <v>188354.36</v>
+      </c>
+      <c r="I15" t="n">
+        <v>188242.86</v>
+      </c>
+      <c r="J15" t="n">
+        <v>188188.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>188249.79</v>
+      </c>
+      <c r="L15" t="n">
+        <v>179914.19</v>
+      </c>
+      <c r="M15" t="n">
         <v>179868.67</v>
-      </c>
-      <c r="C15" t="n">
-        <v>179828.43</v>
-      </c>
-      <c r="D15" t="n">
-        <v>179700.47</v>
-      </c>
-      <c r="E15" t="n">
-        <v>195796.85</v>
-      </c>
-      <c r="F15" t="n">
-        <v>213839.61</v>
-      </c>
-      <c r="G15" t="n">
-        <v>213964.81</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +1104,40 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>80.70999999999999</v>
+      </c>
+      <c r="C16" t="n">
+        <v>82.77</v>
+      </c>
+      <c r="D16" t="n">
+        <v>85.62</v>
+      </c>
+      <c r="E16" t="n">
+        <v>86.55</v>
+      </c>
+      <c r="F16" t="n">
+        <v>93.79000000000001</v>
+      </c>
+      <c r="G16" t="n">
+        <v>97.02</v>
+      </c>
+      <c r="H16" t="n">
+        <v>93.51000000000001</v>
+      </c>
+      <c r="I16" t="n">
+        <v>84.95999999999999</v>
+      </c>
+      <c r="J16" t="n">
+        <v>86.84</v>
+      </c>
+      <c r="K16" t="n">
+        <v>90.91</v>
+      </c>
+      <c r="L16" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="M16" t="n">
         <v>102.36</v>
-      </c>
-      <c r="C16" t="n">
-        <v>94.09999999999999</v>
-      </c>
-      <c r="D16" t="n">
-        <v>88.68000000000001</v>
-      </c>
-      <c r="E16" t="n">
-        <v>88.94</v>
-      </c>
-      <c r="F16" t="n">
-        <v>85.34999999999999</v>
-      </c>
-      <c r="G16" t="n">
-        <v>92</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +1147,38 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>350576.1</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="n">
+        <v>349162.74</v>
+      </c>
+      <c r="E17" t="n">
+        <v>350112.13</v>
+      </c>
+      <c r="F17" t="n">
+        <v>350143.45</v>
+      </c>
+      <c r="G17" t="n">
+        <v>350065.56</v>
+      </c>
+      <c r="H17" t="n">
+        <v>349603.1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>349512.15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>348460.02</v>
+      </c>
+      <c r="K17" t="n">
+        <v>349837.51</v>
+      </c>
+      <c r="L17" t="n">
+        <v>349412.79</v>
+      </c>
+      <c r="M17" t="n">
         <v>350589.28</v>
-      </c>
-      <c r="C17" t="n">
-        <v>348603.96</v>
-      </c>
-      <c r="D17" t="n">
-        <v>336950.69</v>
-      </c>
-      <c r="E17" t="n">
-        <v>350524.86</v>
-      </c>
-      <c r="F17" t="n">
-        <v>348343.01</v>
-      </c>
-      <c r="G17" t="n">
-        <v>349558.92</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +1188,38 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>125184.6</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>125403.64</v>
+      </c>
+      <c r="E18" t="n">
+        <v>125451.1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>125649.65</v>
+      </c>
+      <c r="G18" t="n">
+        <v>125893.72</v>
+      </c>
+      <c r="H18" t="n">
+        <v>125308.5</v>
+      </c>
+      <c r="I18" t="n">
+        <v>125281.54</v>
+      </c>
+      <c r="J18" t="n">
+        <v>124894.21</v>
+      </c>
+      <c r="K18" t="n">
+        <v>125421.19</v>
+      </c>
+      <c r="L18" t="n">
+        <v>125296.46</v>
+      </c>
+      <c r="M18" t="n">
         <v>125210.48</v>
-      </c>
-      <c r="C18" t="n">
-        <v>125747.46</v>
-      </c>
-      <c r="D18" t="n">
-        <v>121020.38</v>
-      </c>
-      <c r="E18" t="n">
-        <v>125464</v>
-      </c>
-      <c r="F18" t="n">
-        <v>125581.05</v>
-      </c>
-      <c r="G18" t="n">
-        <v>125472.82</v>
       </c>
     </row>
     <row r="19">
@@ -899,9 +1231,7 @@
       <c r="B19" t="n">
         <v>0</v>
       </c>
-      <c r="C19" t="n">
-        <v>0</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
       <c r="D19" t="n">
         <v>0</v>
       </c>
@@ -914,6 +1244,24 @@
       <c r="G19" t="n">
         <v>0</v>
       </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -922,22 +1270,38 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>255598.38</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>259843.63</v>
+      </c>
+      <c r="E20" t="n">
+        <v>279104.56</v>
+      </c>
+      <c r="F20" t="n">
+        <v>291124.23</v>
+      </c>
+      <c r="G20" t="n">
+        <v>291201.89</v>
+      </c>
+      <c r="H20" t="n">
+        <v>291103.71</v>
+      </c>
+      <c r="I20" t="n">
+        <v>290436.9</v>
+      </c>
+      <c r="J20" t="n">
+        <v>291178.13</v>
+      </c>
+      <c r="K20" t="n">
+        <v>290563.49</v>
+      </c>
+      <c r="L20" t="n">
+        <v>311520.35</v>
+      </c>
+      <c r="M20" t="n">
         <v>334830.92</v>
-      </c>
-      <c r="C20" t="n">
-        <v>334996.15</v>
-      </c>
-      <c r="D20" t="n">
-        <v>322886.68</v>
-      </c>
-      <c r="E20" t="n">
-        <v>335295.43</v>
-      </c>
-      <c r="F20" t="n">
-        <v>348550.94</v>
-      </c>
-      <c r="G20" t="n">
-        <v>362353</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +1311,38 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>251419.77</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>257581.53</v>
+      </c>
+      <c r="E21" t="n">
+        <v>268190.37</v>
+      </c>
+      <c r="F21" t="n">
+        <v>269200.45</v>
+      </c>
+      <c r="G21" t="n">
+        <v>264788.68</v>
+      </c>
+      <c r="H21" t="n">
+        <v>264044.62</v>
+      </c>
+      <c r="I21" t="n">
+        <v>274282.59</v>
+      </c>
+      <c r="J21" t="n">
+        <v>273880.59</v>
+      </c>
+      <c r="K21" t="n">
+        <v>274121.86</v>
+      </c>
+      <c r="L21" t="n">
+        <v>292334.92</v>
+      </c>
+      <c r="M21" t="n">
         <v>313992.72</v>
-      </c>
-      <c r="C21" t="n">
-        <v>313895.44</v>
-      </c>
-      <c r="D21" t="n">
-        <v>302484.97</v>
-      </c>
-      <c r="E21" t="n">
-        <v>314350.28</v>
-      </c>
-      <c r="F21" t="n">
-        <v>328275.87</v>
-      </c>
-      <c r="G21" t="n">
-        <v>339270.2</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +1352,38 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>246329.97</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>250628.79</v>
+      </c>
+      <c r="E22" t="n">
+        <v>270209.47</v>
+      </c>
+      <c r="F22" t="n">
+        <v>266730.46</v>
+      </c>
+      <c r="G22" t="n">
+        <v>269182.24</v>
+      </c>
+      <c r="H22" t="n">
+        <v>268726.27</v>
+      </c>
+      <c r="I22" t="n">
+        <v>265365</v>
+      </c>
+      <c r="J22" t="n">
+        <v>265583.69</v>
+      </c>
+      <c r="K22" t="n">
+        <v>265933.02</v>
+      </c>
+      <c r="L22" t="n">
+        <v>261601.65</v>
+      </c>
+      <c r="M22" t="n">
         <v>255275.24</v>
-      </c>
-      <c r="C22" t="n">
-        <v>256188.12</v>
-      </c>
-      <c r="D22" t="n">
-        <v>246937.15</v>
-      </c>
-      <c r="E22" t="n">
-        <v>251029.65</v>
-      </c>
-      <c r="F22" t="n">
-        <v>261865.72</v>
-      </c>
-      <c r="G22" t="n">
-        <v>271112.23</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +1393,40 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>352513</v>
+      </c>
+      <c r="C23" t="n">
+        <v>369060.26</v>
+      </c>
+      <c r="D23" t="n">
+        <v>376200.02</v>
+      </c>
+      <c r="E23" t="n">
+        <v>376887.73</v>
+      </c>
+      <c r="F23" t="n">
+        <v>380797.21</v>
+      </c>
+      <c r="G23" t="n">
+        <v>380119.21</v>
+      </c>
+      <c r="H23" t="n">
+        <v>381044.16</v>
+      </c>
+      <c r="I23" t="n">
+        <v>380237.02</v>
+      </c>
+      <c r="J23" t="n">
+        <v>380491.17</v>
+      </c>
+      <c r="K23" t="n">
+        <v>380376.28</v>
+      </c>
+      <c r="L23" t="n">
+        <v>381185.93</v>
+      </c>
+      <c r="M23" t="n">
         <v>381019.16</v>
-      </c>
-      <c r="C23" t="n">
-        <v>368110.72</v>
-      </c>
-      <c r="D23" t="n">
-        <v>355861.16</v>
-      </c>
-      <c r="E23" t="n">
-        <v>346930.08</v>
-      </c>
-      <c r="F23" t="n">
-        <v>347177.2</v>
-      </c>
-      <c r="G23" t="n">
-        <v>340269.27</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1436,40 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>120873.18</v>
+      </c>
+      <c r="C24" t="n">
+        <v>120941.11</v>
+      </c>
+      <c r="D24" t="n">
+        <v>61273.69</v>
+      </c>
+      <c r="E24" t="n">
+        <v>60994.39</v>
+      </c>
+      <c r="F24" t="n">
+        <v>61147.12</v>
+      </c>
+      <c r="G24" t="n">
+        <v>61180.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>61290.35</v>
+      </c>
+      <c r="I24" t="n">
+        <v>61224.78</v>
+      </c>
+      <c r="J24" t="n">
+        <v>61168.36</v>
+      </c>
+      <c r="K24" t="n">
+        <v>61179.83</v>
+      </c>
+      <c r="L24" t="n">
+        <v>60979.44</v>
+      </c>
+      <c r="M24" t="n">
         <v>61201.21</v>
-      </c>
-      <c r="C24" t="n">
-        <v>61122.36</v>
-      </c>
-      <c r="D24" t="n">
-        <v>58712.66</v>
-      </c>
-      <c r="E24" t="n">
-        <v>61282.69</v>
-      </c>
-      <c r="F24" t="n">
-        <v>61310.61</v>
-      </c>
-      <c r="G24" t="n">
-        <v>61036.69</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1479,40 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>50748.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>50811.18</v>
+      </c>
+      <c r="D25" t="n">
+        <v>45805.84</v>
+      </c>
+      <c r="E25" t="n">
+        <v>45749.98</v>
+      </c>
+      <c r="F25" t="n">
+        <v>45836.52</v>
+      </c>
+      <c r="G25" t="n">
+        <v>45737.12</v>
+      </c>
+      <c r="H25" t="n">
+        <v>45937.92</v>
+      </c>
+      <c r="I25" t="n">
+        <v>45856.32</v>
+      </c>
+      <c r="J25" t="n">
+        <v>45847.69</v>
+      </c>
+      <c r="K25" t="n">
+        <v>45848.71</v>
+      </c>
+      <c r="L25" t="n">
+        <v>45879.3</v>
+      </c>
+      <c r="M25" t="n">
         <v>45828.92</v>
-      </c>
-      <c r="C25" t="n">
-        <v>45817.01</v>
-      </c>
-      <c r="D25" t="n">
-        <v>44116.44</v>
-      </c>
-      <c r="E25" t="n">
-        <v>45868.81</v>
-      </c>
-      <c r="F25" t="n">
-        <v>45896.43</v>
-      </c>
-      <c r="G25" t="n">
-        <v>45763.91</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1522,40 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>10488.52</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10478.69</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10498.98</v>
+      </c>
+      <c r="E26" t="n">
+        <v>10481.65</v>
+      </c>
+      <c r="F26" t="n">
+        <v>10506.95</v>
+      </c>
+      <c r="G26" t="n">
+        <v>10477.96</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10484.33</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10461.45</v>
+      </c>
+      <c r="J26" t="n">
+        <v>10469.68</v>
+      </c>
+      <c r="K26" t="n">
+        <v>10505.41</v>
+      </c>
+      <c r="L26" t="n">
+        <v>10501.11</v>
+      </c>
+      <c r="M26" t="n">
         <v>10469.75</v>
-      </c>
-      <c r="C26" t="n">
-        <v>10463.61</v>
-      </c>
-      <c r="D26" t="n">
-        <v>10117.3</v>
-      </c>
-      <c r="E26" t="n">
-        <v>10466.06</v>
-      </c>
-      <c r="F26" t="n">
-        <v>10481.81</v>
-      </c>
-      <c r="G26" t="n">
-        <v>10461.95</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1565,40 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>128297.94</v>
+      </c>
+      <c r="C27" t="n">
+        <v>128323.86</v>
+      </c>
+      <c r="D27" t="n">
+        <v>128352.45</v>
+      </c>
+      <c r="E27" t="n">
+        <v>128307.03</v>
+      </c>
+      <c r="F27" t="n">
+        <v>127868.01</v>
+      </c>
+      <c r="G27" t="n">
+        <v>128082.64</v>
+      </c>
+      <c r="H27" t="n">
+        <v>128022.15</v>
+      </c>
+      <c r="I27" t="n">
+        <v>127868.28</v>
+      </c>
+      <c r="J27" t="n">
+        <v>128324.86</v>
+      </c>
+      <c r="K27" t="n">
+        <v>128310.74</v>
+      </c>
+      <c r="L27" t="n">
+        <v>117978.96</v>
+      </c>
+      <c r="M27" t="n">
         <v>118234.57</v>
-      </c>
-      <c r="C27" t="n">
-        <v>113265.97</v>
-      </c>
-      <c r="D27" t="n">
-        <v>109118.1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>112835.97</v>
-      </c>
-      <c r="F27" t="n">
-        <v>123007.4</v>
-      </c>
-      <c r="G27" t="n">
-        <v>123316.48</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1608,40 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>174459.32</v>
+      </c>
+      <c r="C28" t="n">
+        <v>174240</v>
+      </c>
+      <c r="D28" t="n">
+        <v>150114.51</v>
+      </c>
+      <c r="E28" t="n">
+        <v>150023.83</v>
+      </c>
+      <c r="F28" t="n">
+        <v>149766.24</v>
+      </c>
+      <c r="G28" t="n">
+        <v>149598.71</v>
+      </c>
+      <c r="H28" t="n">
+        <v>159240.98</v>
+      </c>
+      <c r="I28" t="n">
+        <v>160110.46</v>
+      </c>
+      <c r="J28" t="n">
+        <v>160155</v>
+      </c>
+      <c r="K28" t="n">
+        <v>179748.62</v>
+      </c>
+      <c r="L28" t="n">
+        <v>179770.99</v>
+      </c>
+      <c r="M28" t="n">
         <v>180100.14</v>
-      </c>
-      <c r="C28" t="n">
-        <v>179826.23</v>
-      </c>
-      <c r="D28" t="n">
-        <v>173355.71</v>
-      </c>
-      <c r="E28" t="n">
-        <v>179881.83</v>
-      </c>
-      <c r="F28" t="n">
-        <v>179388.25</v>
-      </c>
-      <c r="G28" t="n">
-        <v>199865.85</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1651,40 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>53451.33</v>
+      </c>
+      <c r="C29" t="n">
+        <v>56055.15</v>
+      </c>
+      <c r="D29" t="n">
+        <v>72044.11</v>
+      </c>
+      <c r="E29" t="n">
+        <v>75429.08</v>
+      </c>
+      <c r="F29" t="n">
+        <v>74417.98</v>
+      </c>
+      <c r="G29" t="n">
+        <v>74715.89</v>
+      </c>
+      <c r="H29" t="n">
+        <v>88593.48</v>
+      </c>
+      <c r="I29" t="n">
+        <v>88751.39</v>
+      </c>
+      <c r="J29" t="n">
+        <v>88728.46000000001</v>
+      </c>
+      <c r="K29" t="n">
+        <v>88516.60000000001</v>
+      </c>
+      <c r="L29" t="n">
+        <v>87989.52</v>
+      </c>
+      <c r="M29" t="n">
         <v>77511.5</v>
-      </c>
-      <c r="C29" t="n">
-        <v>77434.94</v>
-      </c>
-      <c r="D29" t="n">
-        <v>72649.25999999999</v>
-      </c>
-      <c r="E29" t="n">
-        <v>74552.5</v>
-      </c>
-      <c r="F29" t="n">
-        <v>75907.45</v>
-      </c>
-      <c r="G29" t="n">
-        <v>80459.62</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1694,40 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>2811.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2833.91</v>
+      </c>
+      <c r="D30" t="n">
+        <v>3239.67</v>
+      </c>
+      <c r="E30" t="n">
+        <v>3239.29</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3241.93</v>
+      </c>
+      <c r="G30" t="n">
+        <v>3226.3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3208.76</v>
+      </c>
+      <c r="I30" t="n">
+        <v>3222.26</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3230.21</v>
+      </c>
+      <c r="K30" t="n">
+        <v>3240.37</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3217.77</v>
+      </c>
+      <c r="M30" t="n">
         <v>3222.66</v>
-      </c>
-      <c r="C30" t="n">
-        <v>3142.4</v>
-      </c>
-      <c r="D30" t="n">
-        <v>3033.66</v>
-      </c>
-      <c r="E30" t="n">
-        <v>3142.99</v>
-      </c>
-      <c r="F30" t="n">
-        <v>3148.56</v>
-      </c>
-      <c r="G30" t="n">
-        <v>3127.61</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1737,40 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>62561.72</v>
+      </c>
+      <c r="C31" t="n">
+        <v>71093.2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>74990.45</v>
+      </c>
+      <c r="E31" t="n">
+        <v>82790.83</v>
+      </c>
+      <c r="F31" t="n">
+        <v>82938.10000000001</v>
+      </c>
+      <c r="G31" t="n">
+        <v>82864.03</v>
+      </c>
+      <c r="H31" t="n">
+        <v>83054.41</v>
+      </c>
+      <c r="I31" t="n">
+        <v>82927.42999999999</v>
+      </c>
+      <c r="J31" t="n">
+        <v>83117.86</v>
+      </c>
+      <c r="K31" t="n">
+        <v>76021.39999999999</v>
+      </c>
+      <c r="L31" t="n">
+        <v>73245.67</v>
+      </c>
+      <c r="M31" t="n">
         <v>72127.98</v>
-      </c>
-      <c r="C31" t="n">
-        <v>71992.27</v>
-      </c>
-      <c r="D31" t="n">
-        <v>69479.28999999999</v>
-      </c>
-      <c r="E31" t="n">
-        <v>75534.97</v>
-      </c>
-      <c r="F31" t="n">
-        <v>75377.05</v>
-      </c>
-      <c r="G31" t="n">
-        <v>81559.87</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1780,40 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>13847.78</v>
+      </c>
+      <c r="C32" t="n">
+        <v>13990.63</v>
+      </c>
+      <c r="D32" t="n">
+        <v>13802.27</v>
+      </c>
+      <c r="E32" t="n">
+        <v>13850.53</v>
+      </c>
+      <c r="F32" t="n">
+        <v>13895</v>
+      </c>
+      <c r="G32" t="n">
+        <v>13970.38</v>
+      </c>
+      <c r="H32" t="n">
+        <v>13866.35</v>
+      </c>
+      <c r="I32" t="n">
+        <v>13855.51</v>
+      </c>
+      <c r="J32" t="n">
+        <v>13842.71</v>
+      </c>
+      <c r="K32" t="n">
+        <v>13850.76</v>
+      </c>
+      <c r="L32" t="n">
+        <v>13807.93</v>
+      </c>
+      <c r="M32" t="n">
         <v>13975.33</v>
-      </c>
-      <c r="C32" t="n">
-        <v>13979.65</v>
-      </c>
-      <c r="D32" t="n">
-        <v>13434.17</v>
-      </c>
-      <c r="E32" t="n">
-        <v>13895.02</v>
-      </c>
-      <c r="F32" t="n">
-        <v>14020.9</v>
-      </c>
-      <c r="G32" t="n">
-        <v>13834.02</v>
       </c>
     </row>
     <row r="33">
@@ -1247,22 +1823,40 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>46332.05</v>
+      </c>
+      <c r="C33" t="n">
+        <v>46354.95</v>
+      </c>
+      <c r="D33" t="n">
+        <v>46378.19</v>
+      </c>
+      <c r="E33" t="n">
+        <v>46389.78</v>
+      </c>
+      <c r="F33" t="n">
+        <v>46346.66</v>
+      </c>
+      <c r="G33" t="n">
+        <v>46305.92</v>
+      </c>
+      <c r="H33" t="n">
+        <v>46301.28</v>
+      </c>
+      <c r="I33" t="n">
+        <v>46382.85</v>
+      </c>
+      <c r="J33" t="n">
+        <v>46286.23</v>
+      </c>
+      <c r="K33" t="n">
+        <v>46396.74</v>
+      </c>
+      <c r="L33" t="n">
+        <v>46337.82</v>
+      </c>
+      <c r="M33" t="n">
         <v>46413.03</v>
-      </c>
-      <c r="C33" t="n">
-        <v>46336.15</v>
-      </c>
-      <c r="D33" t="n">
-        <v>44695.63</v>
-      </c>
-      <c r="E33" t="n">
-        <v>46262.59</v>
-      </c>
-      <c r="F33" t="n">
-        <v>46232.44</v>
-      </c>
-      <c r="G33" t="n">
-        <v>46225.69</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1866,38 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>49829.03</v>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="n">
+        <v>120176.4</v>
+      </c>
+      <c r="E34" t="n">
+        <v>119717.05</v>
+      </c>
+      <c r="F34" t="n">
+        <v>119725.44</v>
+      </c>
+      <c r="G34" t="n">
+        <v>120025.54</v>
+      </c>
+      <c r="H34" t="n">
+        <v>120316.38</v>
+      </c>
+      <c r="I34" t="n">
+        <v>119735.5</v>
+      </c>
+      <c r="J34" t="n">
+        <v>120266.09</v>
+      </c>
+      <c r="K34" t="n">
+        <v>119780.14</v>
+      </c>
+      <c r="L34" t="n">
+        <v>120013.95</v>
+      </c>
+      <c r="M34" t="n">
         <v>119717.39</v>
-      </c>
-      <c r="C34" t="n">
-        <v>120058.18</v>
-      </c>
-      <c r="D34" t="n">
-        <v>115855.29</v>
-      </c>
-      <c r="E34" t="n">
-        <v>119782.31</v>
-      </c>
-      <c r="F34" t="n">
-        <v>119929.74</v>
-      </c>
-      <c r="G34" t="n">
-        <v>120038.28</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1907,40 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>214583.84</v>
+      </c>
+      <c r="C35" t="n">
+        <v>214408.32</v>
+      </c>
+      <c r="D35" t="n">
+        <v>214351.74</v>
+      </c>
+      <c r="E35" t="n">
+        <v>214441.97</v>
+      </c>
+      <c r="F35" t="n">
+        <v>214543.76</v>
+      </c>
+      <c r="G35" t="n">
+        <v>214179.05</v>
+      </c>
+      <c r="H35" t="n">
+        <v>214916.92</v>
+      </c>
+      <c r="I35" t="n">
+        <v>215009.96</v>
+      </c>
+      <c r="J35" t="n">
+        <v>214397.84</v>
+      </c>
+      <c r="K35" t="n">
+        <v>214341.43</v>
+      </c>
+      <c r="L35" t="n">
+        <v>214716.34</v>
+      </c>
+      <c r="M35" t="n">
         <v>214316.94</v>
-      </c>
-      <c r="C35" t="n">
-        <v>214321.87</v>
-      </c>
-      <c r="D35" t="n">
-        <v>206789.45</v>
-      </c>
-      <c r="E35" t="n">
-        <v>215148</v>
-      </c>
-      <c r="F35" t="n">
-        <v>214807.9</v>
-      </c>
-      <c r="G35" t="n">
-        <v>214165.04</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1950,40 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>60645.8</v>
+      </c>
+      <c r="C36" t="n">
+        <v>60516.93</v>
+      </c>
+      <c r="D36" t="n">
+        <v>60508.81</v>
+      </c>
+      <c r="E36" t="n">
+        <v>60430.14</v>
+      </c>
+      <c r="F36" t="n">
+        <v>60640.63</v>
+      </c>
+      <c r="G36" t="n">
+        <v>60436.48</v>
+      </c>
+      <c r="H36" t="n">
+        <v>60582.73</v>
+      </c>
+      <c r="I36" t="n">
+        <v>60572.81</v>
+      </c>
+      <c r="J36" t="n">
+        <v>60720.62</v>
+      </c>
+      <c r="K36" t="n">
+        <v>60408.96</v>
+      </c>
+      <c r="L36" t="n">
+        <v>60505.9</v>
+      </c>
+      <c r="M36" t="n">
         <v>60573.07</v>
-      </c>
-      <c r="C36" t="n">
-        <v>60487.08</v>
-      </c>
-      <c r="D36" t="n">
-        <v>58347.49</v>
-      </c>
-      <c r="E36" t="n">
-        <v>60745.65</v>
-      </c>
-      <c r="F36" t="n">
-        <v>60404.15</v>
-      </c>
-      <c r="G36" t="n">
-        <v>86713.16</v>
       </c>
     </row>
     <row r="37">
@@ -1347,22 +1993,40 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>153737.81</v>
+      </c>
+      <c r="C37" t="n">
+        <v>154135.23</v>
+      </c>
+      <c r="D37" t="n">
+        <v>153830.03</v>
+      </c>
+      <c r="E37" t="n">
+        <v>154029.71</v>
+      </c>
+      <c r="F37" t="n">
+        <v>154174.72</v>
+      </c>
+      <c r="G37" t="n">
+        <v>153622.16</v>
+      </c>
+      <c r="H37" t="n">
+        <v>153737.52</v>
+      </c>
+      <c r="I37" t="n">
+        <v>154067.1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>154050.7</v>
+      </c>
+      <c r="K37" t="n">
+        <v>153799.53</v>
+      </c>
+      <c r="L37" t="n">
+        <v>153934.3</v>
+      </c>
+      <c r="M37" t="n">
         <v>153705.57</v>
-      </c>
-      <c r="C37" t="n">
-        <v>153793.01</v>
-      </c>
-      <c r="D37" t="n">
-        <v>148103.12</v>
-      </c>
-      <c r="E37" t="n">
-        <v>153946.76</v>
-      </c>
-      <c r="F37" t="n">
-        <v>153677.98</v>
-      </c>
-      <c r="G37" t="n">
-        <v>154040.54</v>
       </c>
     </row>
     <row r="38">
@@ -1372,147 +2036,305 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>108208.8</v>
+      </c>
+      <c r="C38" t="n">
+        <v>108402.05</v>
+      </c>
+      <c r="D38" t="n">
+        <v>102093.3</v>
+      </c>
+      <c r="E38" t="n">
+        <v>100265.96</v>
+      </c>
+      <c r="F38" t="n">
+        <v>107727.64</v>
+      </c>
+      <c r="G38" t="n">
+        <v>109223.4</v>
+      </c>
+      <c r="H38" t="n">
+        <v>109394.13</v>
+      </c>
+      <c r="I38" t="n">
+        <v>109241.9</v>
+      </c>
+      <c r="J38" t="n">
+        <v>109629.68</v>
+      </c>
+      <c r="K38" t="n">
+        <v>109333.6</v>
+      </c>
+      <c r="L38" t="n">
+        <v>109631.85</v>
+      </c>
+      <c r="M38" t="n">
         <v>106119.83</v>
-      </c>
-      <c r="C38" t="n">
-        <v>100478.29</v>
-      </c>
-      <c r="D38" t="n">
-        <v>96914.56</v>
-      </c>
-      <c r="E38" t="n">
-        <v>101651.91</v>
-      </c>
-      <c r="F38" t="n">
-        <v>100809.23</v>
-      </c>
-      <c r="G38" t="n">
-        <v>109583.36</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>738428.88</v>
+        <v>1986685.86</v>
       </c>
       <c r="C39" t="n">
-        <v>736776.49</v>
+        <v>1988073.21</v>
       </c>
       <c r="D39" t="n">
-        <v>636739.52</v>
-      </c>
-      <c r="E39" t="n">
-        <v>661765.77</v>
-      </c>
-      <c r="F39" t="n">
-        <v>658857.95</v>
-      </c>
-      <c r="G39" t="n">
-        <v>660947.95</v>
-      </c>
+        <v>1988278.15</v>
+      </c>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>198814.4</v>
+        <v>659915.41</v>
       </c>
       <c r="C40" t="n">
-        <v>197612.32</v>
+        <v>661651.3199999999</v>
       </c>
       <c r="D40" t="n">
-        <v>190414.76</v>
+        <v>736348.5600000001</v>
       </c>
       <c r="E40" t="n">
-        <v>197922</v>
+        <v>734681.52</v>
       </c>
       <c r="F40" t="n">
-        <v>198311.64</v>
+        <v>736071.55</v>
       </c>
       <c r="G40" t="n">
-        <v>198001.11</v>
+        <v>735243.4399999999</v>
+      </c>
+      <c r="H40" t="n">
+        <v>734556.4300000001</v>
+      </c>
+      <c r="I40" t="n">
+        <v>738162.22</v>
+      </c>
+      <c r="J40" t="n">
+        <v>736818.08</v>
+      </c>
+      <c r="K40" t="n">
+        <v>736379.66</v>
+      </c>
+      <c r="L40" t="n">
+        <v>738004.27</v>
+      </c>
+      <c r="M40" t="n">
+        <v>738428.88</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>80071.74000000001</v>
+        <v>197661.1</v>
       </c>
       <c r="C41" t="n">
-        <v>79982.50999999999</v>
+        <v>197729.46</v>
       </c>
       <c r="D41" t="n">
-        <v>77182.63</v>
+        <v>198139.46</v>
       </c>
       <c r="E41" t="n">
-        <v>80068.27</v>
+        <v>197227.67</v>
       </c>
       <c r="F41" t="n">
-        <v>79951.50999999999</v>
+        <v>197865.52</v>
       </c>
       <c r="G41" t="n">
-        <v>80092.3</v>
+        <v>197751.84</v>
+      </c>
+      <c r="H41" t="n">
+        <v>197355.92</v>
+      </c>
+      <c r="I41" t="n">
+        <v>198712.24</v>
+      </c>
+      <c r="J41" t="n">
+        <v>197438.15</v>
+      </c>
+      <c r="K41" t="n">
+        <v>198020.46</v>
+      </c>
+      <c r="L41" t="n">
+        <v>198599</v>
+      </c>
+      <c r="M41" t="n">
+        <v>198814.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>145854.09</v>
+        <v>79944.42</v>
       </c>
       <c r="C42" t="n">
-        <v>145686.88</v>
+        <v>80133.28</v>
       </c>
       <c r="D42" t="n">
-        <v>138592.42</v>
+        <v>79945.84</v>
       </c>
       <c r="E42" t="n">
-        <v>143461.07</v>
+        <v>79975.08</v>
       </c>
       <c r="F42" t="n">
-        <v>147597.78</v>
+        <v>79918.24000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>150648.33</v>
+        <v>79994.13</v>
+      </c>
+      <c r="H42" t="n">
+        <v>80022.25</v>
+      </c>
+      <c r="I42" t="n">
+        <v>80111.66</v>
+      </c>
+      <c r="J42" t="n">
+        <v>79994.22</v>
+      </c>
+      <c r="K42" t="n">
+        <v>79995.10000000001</v>
+      </c>
+      <c r="L42" t="n">
+        <v>80097.24000000001</v>
+      </c>
+      <c r="M42" t="n">
+        <v>80071.74000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>123590.2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>123591.93</v>
+      </c>
+      <c r="D43" t="n">
+        <v>123592.33</v>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>184385.27</v>
+      </c>
+      <c r="C44" t="n">
+        <v>185841.75</v>
+      </c>
+      <c r="D44" t="n">
+        <v>187380.59</v>
+      </c>
+      <c r="E44" t="n">
+        <v>146370.29</v>
+      </c>
+      <c r="F44" t="n">
+        <v>146898.83</v>
+      </c>
+      <c r="G44" t="n">
+        <v>144574.32</v>
+      </c>
+      <c r="H44" t="n">
+        <v>144901.52</v>
+      </c>
+      <c r="I44" t="n">
+        <v>144626.16</v>
+      </c>
+      <c r="J44" t="n">
+        <v>142320.61</v>
+      </c>
+      <c r="K44" t="n">
+        <v>143553.1</v>
+      </c>
+      <c r="L44" t="n">
+        <v>142930.32</v>
+      </c>
+      <c r="M44" t="n">
+        <v>145854.09</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B45" t="n">
+        <v>7744181.33</v>
+      </c>
+      <c r="C45" t="n">
+        <v>6504461.37</v>
+      </c>
+      <c r="D45" t="n">
+        <v>7869984.98</v>
+      </c>
+      <c r="E45" t="n">
+        <v>5854811.7</v>
+      </c>
+      <c r="F45" t="n">
+        <v>5875953.14</v>
+      </c>
+      <c r="G45" t="n">
+        <v>5782972.78</v>
+      </c>
+      <c r="H45" t="n">
+        <v>5796060.97</v>
+      </c>
+      <c r="I45" t="n">
+        <v>5785046.3</v>
+      </c>
+      <c r="J45" t="n">
+        <v>5692824.38</v>
+      </c>
+      <c r="K45" t="n">
+        <v>5742124.04</v>
+      </c>
+      <c r="L45" t="n">
+        <v>5717212.81</v>
+      </c>
+      <c r="M45" t="n">
         <v>5834163.5</v>
-      </c>
-      <c r="C43" t="n">
-        <v>5827475.08</v>
-      </c>
-      <c r="D43" t="n">
-        <v>5543696.84</v>
-      </c>
-      <c r="E43" t="n">
-        <v>5738442.83</v>
-      </c>
-      <c r="F43" t="n">
-        <v>5903911.06</v>
-      </c>
-      <c r="G43" t="n">
-        <v>6025933.23</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/CRES.xlsx
+++ b/backend/src/excel_handler/files/CRES.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M45"/>
+  <dimension ref="A1:AA44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65113.68</v>
+        <v>45594.91</v>
       </c>
       <c r="C2" t="n">
-        <v>65208.4</v>
+        <v>45500.42</v>
       </c>
       <c r="D2" t="n">
-        <v>65282.58</v>
+        <v>43866.84</v>
       </c>
       <c r="E2" t="n">
-        <v>65037.03</v>
+        <v>45676.61</v>
       </c>
       <c r="F2" t="n">
-        <v>64916.07</v>
+        <v>45718.64</v>
       </c>
       <c r="G2" t="n">
-        <v>65148.29</v>
+        <v>45610.62</v>
       </c>
       <c r="H2" t="n">
-        <v>65798.48</v>
+        <v>45099.88</v>
       </c>
       <c r="I2" t="n">
-        <v>45609.88</v>
+        <v>46026.5</v>
       </c>
       <c r="J2" t="n">
-        <v>45155.71</v>
+        <v>46623.34</v>
       </c>
       <c r="K2" t="n">
-        <v>45713.67</v>
+        <v>46788.02</v>
       </c>
       <c r="L2" t="n">
-        <v>45135.45</v>
+        <v>46431.78</v>
       </c>
       <c r="M2" t="n">
-        <v>45594.91</v>
+        <v>46481.22</v>
+      </c>
+      <c r="N2" t="n">
+        <v>46395.87</v>
+      </c>
+      <c r="O2" t="n">
+        <v>69578.81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>93945.45</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>93260.78999999999</v>
+      </c>
+      <c r="R2" t="n">
+        <v>93985.10000000001</v>
+      </c>
+      <c r="S2" t="n">
+        <v>94024.49000000001</v>
+      </c>
+      <c r="T2" t="n">
+        <v>79224.55</v>
+      </c>
+      <c r="U2" t="n">
+        <v>79226.34</v>
+      </c>
+      <c r="V2" t="n">
+        <v>79377.62</v>
+      </c>
+      <c r="W2" t="n">
+        <v>79207.03</v>
+      </c>
+      <c r="X2" t="n">
+        <v>79808.89</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>79827.12</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>79779.56</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>80039.60000000001</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +657,82 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>460076.59</v>
+        <v>449894.05</v>
       </c>
       <c r="C3" t="n">
-        <v>432276.88</v>
+        <v>450896.94</v>
       </c>
       <c r="D3" t="n">
-        <v>433065.87</v>
+        <v>434789.91</v>
       </c>
       <c r="E3" t="n">
-        <v>474565.05</v>
+        <v>451048.01</v>
       </c>
       <c r="F3" t="n">
-        <v>474734.03</v>
+        <v>451327.27</v>
       </c>
       <c r="G3" t="n">
-        <v>474412.74</v>
+        <v>469159.37</v>
       </c>
       <c r="H3" t="n">
-        <v>449756.54</v>
+        <v>468882.92</v>
       </c>
       <c r="I3" t="n">
-        <v>450238.13</v>
+        <v>479312.15</v>
       </c>
       <c r="J3" t="n">
-        <v>450982.83</v>
+        <v>502392.68</v>
       </c>
       <c r="K3" t="n">
-        <v>450963.31</v>
+        <v>524979.91</v>
       </c>
       <c r="L3" t="n">
-        <v>450476.24</v>
+        <v>488344.81</v>
       </c>
       <c r="M3" t="n">
-        <v>449894.05</v>
+        <v>487217.32</v>
+      </c>
+      <c r="N3" t="n">
+        <v>488205.89</v>
+      </c>
+      <c r="O3" t="n">
+        <v>487390.99</v>
+      </c>
+      <c r="P3" t="n">
+        <v>507745.31</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>507575.38</v>
+      </c>
+      <c r="R3" t="n">
+        <v>529901.95</v>
+      </c>
+      <c r="S3" t="n">
+        <v>531518.03</v>
+      </c>
+      <c r="T3" t="n">
+        <v>527609.74</v>
+      </c>
+      <c r="U3" t="n">
+        <v>531491.47</v>
+      </c>
+      <c r="V3" t="n">
+        <v>550738.02</v>
+      </c>
+      <c r="W3" t="n">
+        <v>551907.86</v>
+      </c>
+      <c r="X3" t="n">
+        <v>550753.0699999999</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>550673.52</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>587589.34</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>588771.64</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38928.01</v>
+        <v>69388.66</v>
       </c>
       <c r="C4" t="n">
-        <v>49545.18</v>
+        <v>69382.28999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>49683.68</v>
+        <v>66900.34</v>
       </c>
       <c r="E4" t="n">
-        <v>49654.22</v>
+        <v>69427.23</v>
       </c>
       <c r="F4" t="n">
-        <v>69458.35000000001</v>
+        <v>69485.13</v>
       </c>
       <c r="G4" t="n">
-        <v>69216.97</v>
+        <v>69348.75999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>69553.59</v>
+        <v>69496.61</v>
       </c>
       <c r="I4" t="n">
-        <v>69462.82000000001</v>
+        <v>70890.60000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>69448.49000000001</v>
+        <v>71051.46000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>69535.37</v>
+        <v>71099.3</v>
       </c>
       <c r="L4" t="n">
-        <v>69386.17</v>
+        <v>71057.00999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>69388.66</v>
+        <v>70981.61</v>
+      </c>
+      <c r="N4" t="n">
+        <v>70897.09</v>
+      </c>
+      <c r="O4" t="n">
+        <v>70856.81</v>
+      </c>
+      <c r="P4" t="n">
+        <v>83351.67</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>83403.31</v>
+      </c>
+      <c r="R4" t="n">
+        <v>83286.71000000001</v>
+      </c>
+      <c r="S4" t="n">
+        <v>83592.91</v>
+      </c>
+      <c r="T4" t="n">
+        <v>83309.99000000001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>83530.83</v>
+      </c>
+      <c r="V4" t="n">
+        <v>83347.83</v>
+      </c>
+      <c r="W4" t="n">
+        <v>83729.48</v>
+      </c>
+      <c r="X4" t="n">
+        <v>83463.42999999999</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>83410.56</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>83259.89999999999</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>83539.75999999999</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36790.43</v>
+        <v>36747.22</v>
       </c>
       <c r="C5" t="n">
-        <v>36852.77</v>
+        <v>36856.87</v>
       </c>
       <c r="D5" t="n">
-        <v>36740.02</v>
+        <v>35422.11</v>
       </c>
       <c r="E5" t="n">
-        <v>36924.27</v>
+        <v>36781.44</v>
       </c>
       <c r="F5" t="n">
-        <v>36605.68</v>
+        <v>36593.09</v>
       </c>
       <c r="G5" t="n">
-        <v>36669.13</v>
+        <v>36940.3</v>
       </c>
       <c r="H5" t="n">
-        <v>36823.28</v>
+        <v>37546.97</v>
       </c>
       <c r="I5" t="n">
-        <v>36760.33</v>
+        <v>37720.09</v>
       </c>
       <c r="J5" t="n">
-        <v>36614.16</v>
+        <v>37503.58</v>
       </c>
       <c r="K5" t="n">
-        <v>36704.99</v>
+        <v>37704.22</v>
       </c>
       <c r="L5" t="n">
-        <v>36655.73</v>
+        <v>37779.63</v>
       </c>
       <c r="M5" t="n">
-        <v>36747.22</v>
+        <v>37669.45</v>
+      </c>
+      <c r="N5" t="n">
+        <v>54707.96</v>
+      </c>
+      <c r="O5" t="n">
+        <v>55103.03</v>
+      </c>
+      <c r="P5" t="n">
+        <v>54705.18</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>54608.46</v>
+      </c>
+      <c r="R5" t="n">
+        <v>54865.1</v>
+      </c>
+      <c r="S5" t="n">
+        <v>54688.09</v>
+      </c>
+      <c r="T5" t="n">
+        <v>54625.3</v>
+      </c>
+      <c r="U5" t="n">
+        <v>55091.26</v>
+      </c>
+      <c r="V5" t="n">
+        <v>55080.78</v>
+      </c>
+      <c r="W5" t="n">
+        <v>55302.08</v>
+      </c>
+      <c r="X5" t="n">
+        <v>54682.36</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>54583.67</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>110973.38</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>110937.96</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99318.73</v>
+        <v>98818.37</v>
       </c>
       <c r="C6" t="n">
-        <v>99171.28999999999</v>
+        <v>99382.7</v>
       </c>
       <c r="D6" t="n">
-        <v>99240.85000000001</v>
+        <v>95580.71000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>99228.41</v>
+        <v>98780.86</v>
       </c>
       <c r="F6" t="n">
-        <v>99512.39999999999</v>
+        <v>98913.5</v>
       </c>
       <c r="G6" t="n">
-        <v>98910.73</v>
+        <v>99622.67</v>
       </c>
       <c r="H6" t="n">
-        <v>99003.35000000001</v>
+        <v>99227.71000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>99546.85000000001</v>
+        <v>101685.09</v>
       </c>
       <c r="J6" t="n">
-        <v>99422.82000000001</v>
+        <v>100992.33</v>
       </c>
       <c r="K6" t="n">
-        <v>98963.87</v>
+        <v>101798.14</v>
       </c>
       <c r="L6" t="n">
-        <v>99416.28</v>
+        <v>101503.03</v>
       </c>
       <c r="M6" t="n">
-        <v>98818.37</v>
+        <v>101013.96</v>
+      </c>
+      <c r="N6" t="n">
+        <v>101716.21</v>
+      </c>
+      <c r="O6" t="n">
+        <v>101645.9</v>
+      </c>
+      <c r="P6" t="n">
+        <v>101340.1</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>101631.02</v>
+      </c>
+      <c r="R6" t="n">
+        <v>101829.23</v>
+      </c>
+      <c r="S6" t="n">
+        <v>100936.13</v>
+      </c>
+      <c r="T6" t="n">
+        <v>100952.33</v>
+      </c>
+      <c r="U6" t="n">
+        <v>100953.74</v>
+      </c>
+      <c r="V6" t="n">
+        <v>101144.09</v>
+      </c>
+      <c r="W6" t="n">
+        <v>101724.93</v>
+      </c>
+      <c r="X6" t="n">
+        <v>101246.65</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>101849.52</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>100986.84</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>100822.72</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>119.06</v>
+        <v>102.52</v>
       </c>
       <c r="C7" t="n">
-        <v>114.95</v>
+        <v>101.8</v>
       </c>
       <c r="D7" t="n">
-        <v>110.83</v>
+        <v>96.19</v>
       </c>
       <c r="E7" t="n">
-        <v>113.45</v>
+        <v>101.35</v>
       </c>
       <c r="F7" t="n">
-        <v>111.05</v>
+        <v>88.88</v>
       </c>
       <c r="G7" t="n">
-        <v>111.83</v>
+        <v>89.44</v>
       </c>
       <c r="H7" t="n">
-        <v>111.69</v>
+        <v>90.72</v>
       </c>
       <c r="I7" t="n">
-        <v>109.66</v>
+        <v>92.55</v>
       </c>
       <c r="J7" t="n">
-        <v>108.35</v>
+        <v>88.45</v>
       </c>
       <c r="K7" t="n">
-        <v>102.6</v>
+        <v>85.28</v>
       </c>
       <c r="L7" t="n">
-        <v>103.22</v>
+        <v>86.16</v>
       </c>
       <c r="M7" t="n">
-        <v>102.52</v>
+        <v>83.66</v>
+      </c>
+      <c r="N7" t="n">
+        <v>85.76000000000001</v>
+      </c>
+      <c r="O7" t="n">
+        <v>83.90000000000001</v>
+      </c>
+      <c r="P7" t="n">
+        <v>82.84999999999999</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>80.75</v>
+      </c>
+      <c r="R7" t="n">
+        <v>82.62</v>
+      </c>
+      <c r="S7" t="n">
+        <v>80.17</v>
+      </c>
+      <c r="T7" t="n">
+        <v>79.26000000000001</v>
+      </c>
+      <c r="U7" t="n">
+        <v>74.93000000000001</v>
+      </c>
+      <c r="V7" t="n">
+        <v>61.61</v>
+      </c>
+      <c r="W7" t="n">
+        <v>58.78</v>
+      </c>
+      <c r="X7" t="n">
+        <v>59.78</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>58.83</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>57.62</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>57.51</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +1082,82 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>242684.39</v>
+        <v>96217.66</v>
       </c>
       <c r="C8" t="n">
-        <v>243082.7</v>
+        <v>95045.59</v>
       </c>
       <c r="D8" t="n">
-        <v>243003.64</v>
+        <v>92429.17999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>241951.01</v>
+        <v>96212.92999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>243136.47</v>
+        <v>94919.12</v>
       </c>
       <c r="G8" t="n">
-        <v>242536.51</v>
+        <v>94933.37</v>
       </c>
       <c r="H8" t="n">
-        <v>242319.86</v>
+        <v>95416.25</v>
       </c>
       <c r="I8" t="n">
-        <v>242595.15</v>
+        <v>97757.14999999999</v>
       </c>
       <c r="J8" t="n">
-        <v>171681.89</v>
+        <v>98217.11</v>
       </c>
       <c r="K8" t="n">
-        <v>171529.91</v>
+        <v>96816.64999999999</v>
       </c>
       <c r="L8" t="n">
-        <v>94772.69</v>
+        <v>97113.44</v>
       </c>
       <c r="M8" t="n">
-        <v>96217.66</v>
+        <v>97629.64999999999</v>
+      </c>
+      <c r="N8" t="n">
+        <v>98114.8</v>
+      </c>
+      <c r="O8" t="n">
+        <v>98271.92</v>
+      </c>
+      <c r="P8" t="n">
+        <v>96801.55</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>98044.34</v>
+      </c>
+      <c r="R8" t="n">
+        <v>98127.34</v>
+      </c>
+      <c r="S8" t="n">
+        <v>97445.45</v>
+      </c>
+      <c r="T8" t="n">
+        <v>97024.21000000001</v>
+      </c>
+      <c r="U8" t="n">
+        <v>98284.17999999999</v>
+      </c>
+      <c r="V8" t="n">
+        <v>97286.83</v>
+      </c>
+      <c r="W8" t="n">
+        <v>98002.96000000001</v>
+      </c>
+      <c r="X8" t="n">
+        <v>97630.42</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>98092.22</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>96819.17</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>97019.78</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +1167,82 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>220159.87</v>
+        <v>256878.88</v>
       </c>
       <c r="C9" t="n">
-        <v>228455.66</v>
+        <v>256589.93</v>
       </c>
       <c r="D9" t="n">
-        <v>256966.52</v>
+        <v>247363.78</v>
       </c>
       <c r="E9" t="n">
-        <v>256867.03</v>
+        <v>256667</v>
       </c>
       <c r="F9" t="n">
-        <v>256681.56</v>
+        <v>361646.91</v>
       </c>
       <c r="G9" t="n">
-        <v>256818.34</v>
+        <v>361623.38</v>
       </c>
       <c r="H9" t="n">
-        <v>256649.31</v>
+        <v>362017.08</v>
       </c>
       <c r="I9" t="n">
-        <v>256742.18</v>
+        <v>369944.17</v>
       </c>
       <c r="J9" t="n">
-        <v>256724.66</v>
+        <v>369537.65</v>
       </c>
       <c r="K9" t="n">
-        <v>256810.59</v>
+        <v>369662.57</v>
       </c>
       <c r="L9" t="n">
-        <v>256846.29</v>
+        <v>370059.42</v>
       </c>
       <c r="M9" t="n">
-        <v>256878.88</v>
+        <v>370081.49</v>
+      </c>
+      <c r="N9" t="n">
+        <v>369665.66</v>
+      </c>
+      <c r="O9" t="n">
+        <v>369751.44</v>
+      </c>
+      <c r="P9" t="n">
+        <v>369953.91</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>369718.62</v>
+      </c>
+      <c r="R9" t="n">
+        <v>369556.13</v>
+      </c>
+      <c r="S9" t="n">
+        <v>369731.81</v>
+      </c>
+      <c r="T9" t="n">
+        <v>366814.11</v>
+      </c>
+      <c r="U9" t="n">
+        <v>370036.8</v>
+      </c>
+      <c r="V9" t="n">
+        <v>370018.5</v>
+      </c>
+      <c r="W9" t="n">
+        <v>369780.45</v>
+      </c>
+      <c r="X9" t="n">
+        <v>369662.64</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>369435.85</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>369675.89</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>370133.42</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +1252,82 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179630.92</v>
+        <v>177747.35</v>
       </c>
       <c r="C10" t="n">
-        <v>178136.02</v>
+        <v>178941.83</v>
       </c>
       <c r="D10" t="n">
-        <v>179647.92</v>
+        <v>174100.35</v>
       </c>
       <c r="E10" t="n">
-        <v>178475.05</v>
+        <v>177943.37</v>
       </c>
       <c r="F10" t="n">
-        <v>179996.64</v>
+        <v>178490.71</v>
       </c>
       <c r="G10" t="n">
-        <v>179562.25</v>
+        <v>181783.3</v>
       </c>
       <c r="H10" t="n">
-        <v>179555.89</v>
+        <v>179555.02</v>
       </c>
       <c r="I10" t="n">
-        <v>177887.91</v>
+        <v>183266.17</v>
       </c>
       <c r="J10" t="n">
-        <v>179240.22</v>
+        <v>185341.19</v>
       </c>
       <c r="K10" t="n">
-        <v>180651.16</v>
+        <v>183073.29</v>
       </c>
       <c r="L10" t="n">
-        <v>176458.93</v>
+        <v>184021.1</v>
       </c>
       <c r="M10" t="n">
-        <v>177747.35</v>
+        <v>180447.31</v>
+      </c>
+      <c r="N10" t="n">
+        <v>185059.68</v>
+      </c>
+      <c r="O10" t="n">
+        <v>183937.08</v>
+      </c>
+      <c r="P10" t="n">
+        <v>184025.03</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>184901.11</v>
+      </c>
+      <c r="R10" t="n">
+        <v>182961.56</v>
+      </c>
+      <c r="S10" t="n">
+        <v>183979.63</v>
+      </c>
+      <c r="T10" t="n">
+        <v>184070.81</v>
+      </c>
+      <c r="U10" t="n">
+        <v>183557.3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>182634.44</v>
+      </c>
+      <c r="W10" t="n">
+        <v>181896.91</v>
+      </c>
+      <c r="X10" t="n">
+        <v>184717.85</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>184528.18</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>182905.93</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>180915.7</v>
       </c>
     </row>
     <row r="11">
@@ -889,40 +1337,82 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16550.17</v>
+        <v>1962.89</v>
       </c>
       <c r="C11" t="n">
-        <v>16528.16</v>
+        <v>1962.62</v>
       </c>
       <c r="D11" t="n">
-        <v>16531.47</v>
+        <v>1890.93</v>
       </c>
       <c r="E11" t="n">
-        <v>16525.09</v>
+        <v>1964.38</v>
       </c>
       <c r="F11" t="n">
-        <v>16620.49</v>
+        <v>1963.71</v>
       </c>
       <c r="G11" t="n">
-        <v>16642.97</v>
+        <v>1958.55</v>
       </c>
       <c r="H11" t="n">
-        <v>16621.15</v>
+        <v>1966.4</v>
       </c>
       <c r="I11" t="n">
-        <v>16606.66</v>
+        <v>2003.97</v>
       </c>
       <c r="J11" t="n">
-        <v>16516.62</v>
+        <v>2006.34</v>
       </c>
       <c r="K11" t="n">
-        <v>1964.31</v>
+        <v>2007.75</v>
       </c>
       <c r="L11" t="n">
-        <v>1962.77</v>
+        <v>9923.27</v>
       </c>
       <c r="M11" t="n">
-        <v>1962.89</v>
+        <v>9907.690000000001</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9939.190000000001</v>
+      </c>
+      <c r="O11" t="n">
+        <v>3314.1</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3110.45</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3110.2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>3106.03</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3114.17</v>
+      </c>
+      <c r="T11" t="n">
+        <v>3082.68</v>
+      </c>
+      <c r="U11" t="n">
+        <v>3104.78</v>
+      </c>
+      <c r="V11" t="n">
+        <v>3108.69</v>
+      </c>
+      <c r="W11" t="n">
+        <v>3113.42</v>
+      </c>
+      <c r="X11" t="n">
+        <v>3107.95</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>3115.87</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>3102.65</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3065.62</v>
       </c>
     </row>
     <row r="12">
@@ -932,40 +1422,82 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1220.74</v>
+        <v>1222.25</v>
       </c>
       <c r="C12" t="n">
-        <v>1214.03</v>
+        <v>1215.34</v>
       </c>
       <c r="D12" t="n">
-        <v>1215.37</v>
+        <v>1175.7</v>
       </c>
       <c r="E12" t="n">
-        <v>1212.57</v>
+        <v>1224.2</v>
       </c>
       <c r="F12" t="n">
-        <v>1217.27</v>
+        <v>1214.73</v>
       </c>
       <c r="G12" t="n">
-        <v>1222.71</v>
+        <v>1213.34</v>
       </c>
       <c r="H12" t="n">
-        <v>1211.92</v>
+        <v>1221.38</v>
       </c>
       <c r="I12" t="n">
-        <v>1213.76</v>
+        <v>1219.03</v>
       </c>
       <c r="J12" t="n">
-        <v>1223.18</v>
+        <v>1215.07</v>
       </c>
       <c r="K12" t="n">
-        <v>1220.4</v>
+        <v>1222.11</v>
       </c>
       <c r="L12" t="n">
-        <v>1217.93</v>
+        <v>1220.08</v>
       </c>
       <c r="M12" t="n">
-        <v>1222.25</v>
+        <v>1241.26</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1246.06</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1240.49</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1239.78</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1245.7</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1248.76</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1248.41</v>
+      </c>
+      <c r="T12" t="n">
+        <v>1241.46</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1247.93</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1242.57</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1243.92</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1240.3</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>1246.81</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>1245.18</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>1240.27</v>
       </c>
     </row>
     <row r="13">
@@ -975,40 +1507,82 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15021.03</v>
+        <v>14873.4</v>
       </c>
       <c r="C13" t="n">
-        <v>15001.71</v>
+        <v>14872.45</v>
       </c>
       <c r="D13" t="n">
-        <v>15014.6</v>
+        <v>14329.24</v>
       </c>
       <c r="E13" t="n">
-        <v>15023.41</v>
+        <v>14888.64</v>
       </c>
       <c r="F13" t="n">
-        <v>15029.43</v>
+        <v>14848.03</v>
       </c>
       <c r="G13" t="n">
-        <v>15031.46</v>
+        <v>14883.08</v>
       </c>
       <c r="H13" t="n">
-        <v>15015.25</v>
+        <v>14828.66</v>
       </c>
       <c r="I13" t="n">
-        <v>14968.2</v>
+        <v>14842.29</v>
       </c>
       <c r="J13" t="n">
-        <v>15010.26</v>
+        <v>14828.65</v>
       </c>
       <c r="K13" t="n">
-        <v>14972.88</v>
+        <v>14849.4</v>
       </c>
       <c r="L13" t="n">
-        <v>14829.85</v>
+        <v>14881.8</v>
       </c>
       <c r="M13" t="n">
-        <v>14873.4</v>
+        <v>9517.450000000001</v>
+      </c>
+      <c r="N13" t="n">
+        <v>9492.700000000001</v>
+      </c>
+      <c r="O13" t="n">
+        <v>9505.790000000001</v>
+      </c>
+      <c r="P13" t="n">
+        <v>9537.34</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>9529.43</v>
+      </c>
+      <c r="R13" t="n">
+        <v>9494.389999999999</v>
+      </c>
+      <c r="S13" t="n">
+        <v>9481.6</v>
+      </c>
+      <c r="T13" t="n">
+        <v>9448.690000000001</v>
+      </c>
+      <c r="U13" t="n">
+        <v>9498.76</v>
+      </c>
+      <c r="V13" t="n">
+        <v>9529.82</v>
+      </c>
+      <c r="W13" t="n">
+        <v>9498.26</v>
+      </c>
+      <c r="X13" t="n">
+        <v>9498.030000000001</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>9496.440000000001</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>9558.98</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>9483.299999999999</v>
       </c>
     </row>
     <row r="14">
@@ -1018,40 +1592,82 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>342394.97</v>
+        <v>342993.6</v>
       </c>
       <c r="C14" t="n">
-        <v>343069.22</v>
+        <v>362371.58</v>
       </c>
       <c r="D14" t="n">
-        <v>301798.69</v>
+        <v>340762.34</v>
       </c>
       <c r="E14" t="n">
-        <v>302250.16</v>
+        <v>353492.62</v>
       </c>
       <c r="F14" t="n">
-        <v>272267.87</v>
+        <v>353461.59</v>
       </c>
       <c r="G14" t="n">
-        <v>183576.59</v>
+        <v>357440.37</v>
       </c>
       <c r="H14" t="n">
-        <v>184480.14</v>
+        <v>356447.74</v>
       </c>
       <c r="I14" t="n">
-        <v>183587.63</v>
+        <v>364684.3</v>
       </c>
       <c r="J14" t="n">
-        <v>163445.5</v>
+        <v>374308.97</v>
       </c>
       <c r="K14" t="n">
-        <v>212718.87</v>
+        <v>380010</v>
       </c>
       <c r="L14" t="n">
-        <v>253384.21</v>
+        <v>394233.23</v>
       </c>
       <c r="M14" t="n">
-        <v>342993.6</v>
+        <v>414580.42</v>
+      </c>
+      <c r="N14" t="n">
+        <v>423258.04</v>
+      </c>
+      <c r="O14" t="n">
+        <v>439657.14</v>
+      </c>
+      <c r="P14" t="n">
+        <v>449459.14</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>483861.41</v>
+      </c>
+      <c r="R14" t="n">
+        <v>483123.61</v>
+      </c>
+      <c r="S14" t="n">
+        <v>484052.17</v>
+      </c>
+      <c r="T14" t="n">
+        <v>463087.11</v>
+      </c>
+      <c r="U14" t="n">
+        <v>441220.37</v>
+      </c>
+      <c r="V14" t="n">
+        <v>454045.11</v>
+      </c>
+      <c r="W14" t="n">
+        <v>455522.42</v>
+      </c>
+      <c r="X14" t="n">
+        <v>478753.6</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>478499.38</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>501588.01</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>526686.85</v>
       </c>
     </row>
     <row r="15">
@@ -1061,1041 +1677,2025 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>145795.8</v>
+        <v>179868.67</v>
       </c>
       <c r="C15" t="n">
-        <v>162896.96</v>
+        <v>179828.43</v>
       </c>
       <c r="D15" t="n">
-        <v>169012.19</v>
+        <v>179700.47</v>
       </c>
       <c r="E15" t="n">
-        <v>168917.55</v>
+        <v>195796.85</v>
       </c>
       <c r="F15" t="n">
-        <v>175294.58</v>
+        <v>213839.61</v>
       </c>
       <c r="G15" t="n">
-        <v>175128.15</v>
+        <v>213964.81</v>
       </c>
       <c r="H15" t="n">
-        <v>188354.36</v>
+        <v>209508.96</v>
       </c>
       <c r="I15" t="n">
-        <v>188242.86</v>
+        <v>214124.57</v>
       </c>
       <c r="J15" t="n">
-        <v>188188.6</v>
+        <v>214029.83</v>
       </c>
       <c r="K15" t="n">
-        <v>188249.79</v>
+        <v>224437.7</v>
       </c>
       <c r="L15" t="n">
-        <v>179914.19</v>
+        <v>233871.5</v>
       </c>
       <c r="M15" t="n">
-        <v>179868.67</v>
+        <v>238399.68</v>
+      </c>
+      <c r="N15" t="n">
+        <v>238070.13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>247991.62</v>
+      </c>
+      <c r="P15" t="n">
+        <v>257825.06</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>286453.27</v>
+      </c>
+      <c r="R15" t="n">
+        <v>296585.27</v>
+      </c>
+      <c r="S15" t="n">
+        <v>309241.51</v>
+      </c>
+      <c r="T15" t="n">
+        <v>305135.39</v>
+      </c>
+      <c r="U15" t="n">
+        <v>295658.48</v>
+      </c>
+      <c r="V15" t="n">
+        <v>317166.49</v>
+      </c>
+      <c r="W15" t="n">
+        <v>339647.43</v>
+      </c>
+      <c r="X15" t="n">
+        <v>362871.65</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>359340.22</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>344930.71</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>330931.53</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Compass Small Cap II</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>80.70999999999999</v>
-      </c>
-      <c r="C16" t="n">
-        <v>82.77</v>
-      </c>
-      <c r="D16" t="n">
-        <v>85.62</v>
-      </c>
-      <c r="E16" t="n">
-        <v>86.55</v>
-      </c>
-      <c r="F16" t="n">
-        <v>93.79000000000001</v>
-      </c>
-      <c r="G16" t="n">
-        <v>97.02</v>
-      </c>
-      <c r="H16" t="n">
-        <v>93.51000000000001</v>
-      </c>
-      <c r="I16" t="n">
-        <v>84.95999999999999</v>
-      </c>
-      <c r="J16" t="n">
-        <v>86.84</v>
-      </c>
-      <c r="K16" t="n">
-        <v>90.91</v>
-      </c>
-      <c r="L16" t="n">
-        <v>89.40000000000001</v>
-      </c>
-      <c r="M16" t="n">
-        <v>102.36</v>
+          <t>Compass Crecimiento</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="n">
+        <v>7914.67</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>7892.75</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>8086</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>7514.74</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Compass Small Cap II</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>350576.1</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>102.36</v>
+      </c>
+      <c r="C17" t="n">
+        <v>94.09999999999999</v>
+      </c>
       <c r="D17" t="n">
-        <v>349162.74</v>
+        <v>88.68000000000001</v>
       </c>
       <c r="E17" t="n">
-        <v>350112.13</v>
+        <v>88.94</v>
       </c>
       <c r="F17" t="n">
-        <v>350143.45</v>
+        <v>85.34999999999999</v>
       </c>
       <c r="G17" t="n">
-        <v>350065.56</v>
+        <v>92</v>
       </c>
       <c r="H17" t="n">
-        <v>349603.1</v>
+        <v>89.48999999999999</v>
       </c>
       <c r="I17" t="n">
-        <v>349512.15</v>
+        <v>89.43000000000001</v>
       </c>
       <c r="J17" t="n">
-        <v>348460.02</v>
+        <v>77.68000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>349837.51</v>
+        <v>73.72</v>
       </c>
       <c r="L17" t="n">
-        <v>349412.79</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="M17" t="n">
-        <v>350589.28</v>
-      </c>
+        <v>71.45999999999999</v>
+      </c>
+      <c r="N17" t="n">
+        <v>65.42</v>
+      </c>
+      <c r="O17" t="n">
+        <v>56.15</v>
+      </c>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>125184.6</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>350589.28</v>
+      </c>
+      <c r="C18" t="n">
+        <v>348603.96</v>
+      </c>
       <c r="D18" t="n">
-        <v>125403.64</v>
+        <v>336950.69</v>
       </c>
       <c r="E18" t="n">
-        <v>125451.1</v>
+        <v>350524.86</v>
       </c>
       <c r="F18" t="n">
-        <v>125649.65</v>
+        <v>348343.01</v>
       </c>
       <c r="G18" t="n">
-        <v>125893.72</v>
+        <v>349558.92</v>
       </c>
       <c r="H18" t="n">
-        <v>125308.5</v>
+        <v>349438.9</v>
       </c>
       <c r="I18" t="n">
-        <v>125281.54</v>
+        <v>357262.07</v>
       </c>
       <c r="J18" t="n">
-        <v>124894.21</v>
+        <v>357405.68</v>
       </c>
       <c r="K18" t="n">
-        <v>125421.19</v>
+        <v>357384.47</v>
       </c>
       <c r="L18" t="n">
-        <v>125296.46</v>
+        <v>356660.68</v>
       </c>
       <c r="M18" t="n">
-        <v>125210.48</v>
+        <v>355984.39</v>
+      </c>
+      <c r="N18" t="n">
+        <v>356551.11</v>
+      </c>
+      <c r="O18" t="n">
+        <v>357231.14</v>
+      </c>
+      <c r="P18" t="n">
+        <v>358234.04</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>356529.51</v>
+      </c>
+      <c r="R18" t="n">
+        <v>358470.68</v>
+      </c>
+      <c r="S18" t="n">
+        <v>356872.07</v>
+      </c>
+      <c r="T18" t="n">
+        <v>354827.8</v>
+      </c>
+      <c r="U18" t="n">
+        <v>357349.99</v>
+      </c>
+      <c r="V18" t="n">
+        <v>357706.53</v>
+      </c>
+      <c r="W18" t="n">
+        <v>356360.59</v>
+      </c>
+      <c r="X18" t="n">
+        <v>356196.51</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>356608.66</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>358325.5</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>357629.27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>125210.48</v>
+      </c>
+      <c r="C19" t="n">
+        <v>125747.46</v>
+      </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>121020.38</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>125464</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>125581.05</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>125472.82</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>125679.01</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>128293.62</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>128394.35</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>127956.44</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>128445.92</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>127765.03</v>
+      </c>
+      <c r="N19" t="n">
+        <v>128365.44</v>
+      </c>
+      <c r="O19" t="n">
+        <v>128112.08</v>
+      </c>
+      <c r="P19" t="n">
+        <v>128186.19</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>127753.94</v>
+      </c>
+      <c r="R19" t="n">
+        <v>127840.87</v>
+      </c>
+      <c r="S19" t="n">
+        <v>128161.79</v>
+      </c>
+      <c r="T19" t="n">
+        <v>127151.99</v>
+      </c>
+      <c r="U19" t="n">
+        <v>100624.22</v>
+      </c>
+      <c r="V19" t="n">
+        <v>100004.64</v>
+      </c>
+      <c r="W19" t="n">
+        <v>100764.12</v>
+      </c>
+      <c r="X19" t="n">
+        <v>100344.09</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>99867.25</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>100180.76</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>99971.06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>255598.38</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
       <c r="D20" t="n">
-        <v>259843.63</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>279104.56</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>291124.23</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>291201.89</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>291103.71</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>290436.9</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>291178.13</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>290563.49</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>311520.35</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>334830.92</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>251419.77</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>334830.92</v>
+      </c>
+      <c r="C21" t="n">
+        <v>334996.15</v>
+      </c>
       <c r="D21" t="n">
-        <v>257581.53</v>
+        <v>322886.68</v>
       </c>
       <c r="E21" t="n">
-        <v>268190.37</v>
+        <v>335295.43</v>
       </c>
       <c r="F21" t="n">
-        <v>269200.45</v>
+        <v>348550.94</v>
       </c>
       <c r="G21" t="n">
-        <v>264788.68</v>
+        <v>362353</v>
       </c>
       <c r="H21" t="n">
-        <v>264044.62</v>
+        <v>370483.49</v>
       </c>
       <c r="I21" t="n">
-        <v>274282.59</v>
+        <v>382074.57</v>
       </c>
       <c r="J21" t="n">
-        <v>273880.59</v>
+        <v>387157.28</v>
       </c>
       <c r="K21" t="n">
-        <v>274121.86</v>
+        <v>386236.38</v>
       </c>
       <c r="L21" t="n">
-        <v>292334.92</v>
+        <v>386151.18</v>
       </c>
       <c r="M21" t="n">
-        <v>313992.72</v>
+        <v>386851.43</v>
+      </c>
+      <c r="N21" t="n">
+        <v>387285.88</v>
+      </c>
+      <c r="O21" t="n">
+        <v>398123.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>411389.65</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>424346.46</v>
+      </c>
+      <c r="R21" t="n">
+        <v>443222.68</v>
+      </c>
+      <c r="S21" t="n">
+        <v>447852.16</v>
+      </c>
+      <c r="T21" t="n">
+        <v>433531.24</v>
+      </c>
+      <c r="U21" t="n">
+        <v>436541.77</v>
+      </c>
+      <c r="V21" t="n">
+        <v>459093.3</v>
+      </c>
+      <c r="W21" t="n">
+        <v>476105.29</v>
+      </c>
+      <c r="X21" t="n">
+        <v>494584.85</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>461765.81</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>482572.18</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>463016.06</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>246329.97</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>313992.72</v>
+      </c>
+      <c r="C22" t="n">
+        <v>313895.44</v>
+      </c>
       <c r="D22" t="n">
-        <v>250628.79</v>
+        <v>302484.97</v>
       </c>
       <c r="E22" t="n">
-        <v>270209.47</v>
+        <v>314350.28</v>
       </c>
       <c r="F22" t="n">
-        <v>266730.46</v>
+        <v>328275.87</v>
       </c>
       <c r="G22" t="n">
-        <v>269182.24</v>
+        <v>339270.2</v>
       </c>
       <c r="H22" t="n">
-        <v>268726.27</v>
+        <v>346219.29</v>
       </c>
       <c r="I22" t="n">
-        <v>265365</v>
+        <v>354315.98</v>
       </c>
       <c r="J22" t="n">
-        <v>265583.69</v>
+        <v>375522.48</v>
       </c>
       <c r="K22" t="n">
-        <v>265933.02</v>
+        <v>375319.01</v>
       </c>
       <c r="L22" t="n">
-        <v>261601.65</v>
+        <v>386654.68</v>
       </c>
       <c r="M22" t="n">
-        <v>255275.24</v>
+        <v>386566.75</v>
+      </c>
+      <c r="N22" t="n">
+        <v>391247.37</v>
+      </c>
+      <c r="O22" t="n">
+        <v>392160.8</v>
+      </c>
+      <c r="P22" t="n">
+        <v>409861.06</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>419214.54</v>
+      </c>
+      <c r="R22" t="n">
+        <v>418371.86</v>
+      </c>
+      <c r="S22" t="n">
+        <v>418970.34</v>
+      </c>
+      <c r="T22" t="n">
+        <v>419361.17</v>
+      </c>
+      <c r="U22" t="n">
+        <v>408647.07</v>
+      </c>
+      <c r="V22" t="n">
+        <v>417543.4</v>
+      </c>
+      <c r="W22" t="n">
+        <v>440800.82</v>
+      </c>
+      <c r="X22" t="n">
+        <v>447519.01</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>421454.92</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>454052.29</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>453052.45</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>352513</v>
+        <v>255275.24</v>
       </c>
       <c r="C23" t="n">
-        <v>369060.26</v>
+        <v>256188.12</v>
       </c>
       <c r="D23" t="n">
-        <v>376200.02</v>
+        <v>246937.15</v>
       </c>
       <c r="E23" t="n">
-        <v>376887.73</v>
+        <v>251029.65</v>
       </c>
       <c r="F23" t="n">
-        <v>380797.21</v>
+        <v>261865.72</v>
       </c>
       <c r="G23" t="n">
-        <v>380119.21</v>
+        <v>271112.23</v>
       </c>
       <c r="H23" t="n">
-        <v>381044.16</v>
+        <v>269870.93</v>
       </c>
       <c r="I23" t="n">
-        <v>380237.02</v>
+        <v>285013.69</v>
       </c>
       <c r="J23" t="n">
-        <v>380491.17</v>
+        <v>293572.38</v>
       </c>
       <c r="K23" t="n">
-        <v>380376.28</v>
+        <v>294583.11</v>
       </c>
       <c r="L23" t="n">
-        <v>381185.93</v>
+        <v>294375.69</v>
       </c>
       <c r="M23" t="n">
-        <v>381019.16</v>
+        <v>295161.9</v>
+      </c>
+      <c r="N23" t="n">
+        <v>297088.71</v>
+      </c>
+      <c r="O23" t="n">
+        <v>298051.67</v>
+      </c>
+      <c r="P23" t="n">
+        <v>299911.16</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>308497.05</v>
+      </c>
+      <c r="R23" t="n">
+        <v>314848.39</v>
+      </c>
+      <c r="S23" t="n">
+        <v>314105</v>
+      </c>
+      <c r="T23" t="n">
+        <v>315133.43</v>
+      </c>
+      <c r="U23" t="n">
+        <v>317129.44</v>
+      </c>
+      <c r="V23" t="n">
+        <v>332806.42</v>
+      </c>
+      <c r="W23" t="n">
+        <v>336170.58</v>
+      </c>
+      <c r="X23" t="n">
+        <v>344216.7</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>322123.27</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>331295.28</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>331451.4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>120873.18</v>
+        <v>381019.16</v>
       </c>
       <c r="C24" t="n">
-        <v>120941.11</v>
+        <v>368110.72</v>
       </c>
       <c r="D24" t="n">
-        <v>61273.69</v>
+        <v>355861.16</v>
       </c>
       <c r="E24" t="n">
-        <v>60994.39</v>
+        <v>346930.08</v>
       </c>
       <c r="F24" t="n">
-        <v>61147.12</v>
+        <v>347177.2</v>
       </c>
       <c r="G24" t="n">
-        <v>61180.8</v>
+        <v>340269.27</v>
       </c>
       <c r="H24" t="n">
-        <v>61290.35</v>
+        <v>339256.96</v>
       </c>
       <c r="I24" t="n">
-        <v>61224.78</v>
+        <v>354100.49</v>
       </c>
       <c r="J24" t="n">
-        <v>61168.36</v>
+        <v>359091.61</v>
       </c>
       <c r="K24" t="n">
-        <v>61179.83</v>
+        <v>359770.19</v>
       </c>
       <c r="L24" t="n">
-        <v>60979.44</v>
+        <v>359440.59</v>
       </c>
       <c r="M24" t="n">
-        <v>61201.21</v>
+        <v>359410.07</v>
+      </c>
+      <c r="N24" t="n">
+        <v>359968.14</v>
+      </c>
+      <c r="O24" t="n">
+        <v>359911.2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>383186.49</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>412150.91</v>
+      </c>
+      <c r="R24" t="n">
+        <v>425839.32</v>
+      </c>
+      <c r="S24" t="n">
+        <v>426389.63</v>
+      </c>
+      <c r="T24" t="n">
+        <v>424974.24</v>
+      </c>
+      <c r="U24" t="n">
+        <v>425823.08</v>
+      </c>
+      <c r="V24" t="n">
+        <v>448646.63</v>
+      </c>
+      <c r="W24" t="n">
+        <v>488748.36</v>
+      </c>
+      <c r="X24" t="n">
+        <v>493136.54</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>482350.86</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>477323.85</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>469746.35</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>50748.5</v>
+        <v>61201.21</v>
       </c>
       <c r="C25" t="n">
-        <v>50811.18</v>
+        <v>61122.36</v>
       </c>
       <c r="D25" t="n">
-        <v>45805.84</v>
+        <v>58712.66</v>
       </c>
       <c r="E25" t="n">
-        <v>45749.98</v>
+        <v>61282.69</v>
       </c>
       <c r="F25" t="n">
-        <v>45836.52</v>
+        <v>61310.61</v>
       </c>
       <c r="G25" t="n">
-        <v>45737.12</v>
+        <v>61036.69</v>
       </c>
       <c r="H25" t="n">
-        <v>45937.92</v>
+        <v>61096.56</v>
       </c>
       <c r="I25" t="n">
-        <v>45856.32</v>
+        <v>63786.34</v>
       </c>
       <c r="J25" t="n">
-        <v>45847.69</v>
+        <v>64017.54</v>
       </c>
       <c r="K25" t="n">
-        <v>45848.71</v>
+        <v>64024.18</v>
       </c>
       <c r="L25" t="n">
-        <v>45879.3</v>
+        <v>62599.39</v>
       </c>
       <c r="M25" t="n">
-        <v>45828.92</v>
+        <v>62739.69</v>
+      </c>
+      <c r="N25" t="n">
+        <v>62428.96</v>
+      </c>
+      <c r="O25" t="n">
+        <v>62608.95</v>
+      </c>
+      <c r="P25" t="n">
+        <v>62629.05</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>62632.95</v>
+      </c>
+      <c r="R25" t="n">
+        <v>62300.55</v>
+      </c>
+      <c r="S25" t="n">
+        <v>62464.54</v>
+      </c>
+      <c r="T25" t="n">
+        <v>62457.79</v>
+      </c>
+      <c r="U25" t="n">
+        <v>62640.35</v>
+      </c>
+      <c r="V25" t="n">
+        <v>62452.28</v>
+      </c>
+      <c r="W25" t="n">
+        <v>62413.3</v>
+      </c>
+      <c r="X25" t="n">
+        <v>62473.35</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>62280.96</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>62311.41</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>62497.04</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>10488.52</v>
+        <v>45828.92</v>
       </c>
       <c r="C26" t="n">
-        <v>10478.69</v>
+        <v>45817.01</v>
       </c>
       <c r="D26" t="n">
-        <v>10498.98</v>
+        <v>44116.44</v>
       </c>
       <c r="E26" t="n">
-        <v>10481.65</v>
+        <v>45868.81</v>
       </c>
       <c r="F26" t="n">
-        <v>10506.95</v>
+        <v>45896.43</v>
       </c>
       <c r="G26" t="n">
-        <v>10477.96</v>
+        <v>45763.91</v>
       </c>
       <c r="H26" t="n">
-        <v>10484.33</v>
+        <v>45763.84</v>
       </c>
       <c r="I26" t="n">
-        <v>10461.45</v>
+        <v>46825.9</v>
       </c>
       <c r="J26" t="n">
-        <v>10469.68</v>
+        <v>46795.46</v>
       </c>
       <c r="K26" t="n">
-        <v>10505.41</v>
+        <v>46858.41</v>
       </c>
       <c r="L26" t="n">
-        <v>10501.11</v>
+        <v>46754.63</v>
       </c>
       <c r="M26" t="n">
-        <v>10469.75</v>
+        <v>46907.53</v>
+      </c>
+      <c r="N26" t="n">
+        <v>46866.82</v>
+      </c>
+      <c r="O26" t="n">
+        <v>46827.11</v>
+      </c>
+      <c r="P26" t="n">
+        <v>46795.49</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>46759.44</v>
+      </c>
+      <c r="R26" t="n">
+        <v>46757.37</v>
+      </c>
+      <c r="S26" t="n">
+        <v>46933.37</v>
+      </c>
+      <c r="T26" t="n">
+        <v>46770.95</v>
+      </c>
+      <c r="U26" t="n">
+        <v>46723.17</v>
+      </c>
+      <c r="V26" t="n">
+        <v>46738.85</v>
+      </c>
+      <c r="W26" t="n">
+        <v>46824.76</v>
+      </c>
+      <c r="X26" t="n">
+        <v>46978.65</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>57164.69</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>57155.15</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>57150.04</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>128297.94</v>
+        <v>10469.75</v>
       </c>
       <c r="C27" t="n">
-        <v>128323.86</v>
+        <v>10463.61</v>
       </c>
       <c r="D27" t="n">
-        <v>128352.45</v>
+        <v>10117.3</v>
       </c>
       <c r="E27" t="n">
-        <v>128307.03</v>
+        <v>10466.06</v>
       </c>
       <c r="F27" t="n">
-        <v>127868.01</v>
+        <v>10481.81</v>
       </c>
       <c r="G27" t="n">
-        <v>128082.64</v>
+        <v>10461.95</v>
       </c>
       <c r="H27" t="n">
-        <v>128022.15</v>
+        <v>10472.62</v>
       </c>
       <c r="I27" t="n">
-        <v>127868.28</v>
+        <v>10705.88</v>
       </c>
       <c r="J27" t="n">
-        <v>128324.86</v>
+        <v>10692.29</v>
       </c>
       <c r="K27" t="n">
-        <v>128310.74</v>
+        <v>10690.04</v>
       </c>
       <c r="L27" t="n">
-        <v>117978.96</v>
+        <v>10709.01</v>
       </c>
       <c r="M27" t="n">
-        <v>118234.57</v>
+        <v>10733.77</v>
+      </c>
+      <c r="N27" t="n">
+        <v>10697.6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>10741.13</v>
+      </c>
+      <c r="P27" t="n">
+        <v>10688.89</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>10685.69</v>
+      </c>
+      <c r="R27" t="n">
+        <v>10707.52</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10694.12</v>
+      </c>
+      <c r="T27" t="n">
+        <v>10743.44</v>
+      </c>
+      <c r="U27" t="n">
+        <v>10741.26</v>
+      </c>
+      <c r="V27" t="n">
+        <v>10722.61</v>
+      </c>
+      <c r="W27" t="n">
+        <v>10707.89</v>
+      </c>
+      <c r="X27" t="n">
+        <v>10692.65</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>10738.37</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>10735.93</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>10716.17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>174459.32</v>
+        <v>118234.57</v>
       </c>
       <c r="C28" t="n">
-        <v>174240</v>
+        <v>113265.97</v>
       </c>
       <c r="D28" t="n">
-        <v>150114.51</v>
+        <v>109118.1</v>
       </c>
       <c r="E28" t="n">
-        <v>150023.83</v>
+        <v>112835.97</v>
       </c>
       <c r="F28" t="n">
-        <v>149766.24</v>
+        <v>123007.4</v>
       </c>
       <c r="G28" t="n">
-        <v>149598.71</v>
+        <v>123316.48</v>
       </c>
       <c r="H28" t="n">
-        <v>159240.98</v>
+        <v>122956.7</v>
       </c>
       <c r="I28" t="n">
-        <v>160110.46</v>
+        <v>125589.89</v>
       </c>
       <c r="J28" t="n">
-        <v>160155</v>
+        <v>125813.21</v>
       </c>
       <c r="K28" t="n">
-        <v>179748.62</v>
+        <v>125769.72</v>
       </c>
       <c r="L28" t="n">
-        <v>179770.99</v>
+        <v>125610.73</v>
       </c>
       <c r="M28" t="n">
-        <v>180100.14</v>
+        <v>125886.01</v>
+      </c>
+      <c r="N28" t="n">
+        <v>125718.86</v>
+      </c>
+      <c r="O28" t="n">
+        <v>125947.97</v>
+      </c>
+      <c r="P28" t="n">
+        <v>125865.1</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>125725.83</v>
+      </c>
+      <c r="R28" t="n">
+        <v>125626.9</v>
+      </c>
+      <c r="S28" t="n">
+        <v>125626.3</v>
+      </c>
+      <c r="T28" t="n">
+        <v>125774.55</v>
+      </c>
+      <c r="U28" t="n">
+        <v>125675.91</v>
+      </c>
+      <c r="V28" t="n">
+        <v>125700.66</v>
+      </c>
+      <c r="W28" t="n">
+        <v>126070.06</v>
+      </c>
+      <c r="X28" t="n">
+        <v>140882.37</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>140870.53</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>140646.39</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>140766.69</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>53451.33</v>
+        <v>180100.14</v>
       </c>
       <c r="C29" t="n">
-        <v>56055.15</v>
+        <v>179826.23</v>
       </c>
       <c r="D29" t="n">
-        <v>72044.11</v>
+        <v>173355.71</v>
       </c>
       <c r="E29" t="n">
-        <v>75429.08</v>
+        <v>179881.83</v>
       </c>
       <c r="F29" t="n">
-        <v>74417.98</v>
+        <v>179388.25</v>
       </c>
       <c r="G29" t="n">
-        <v>74715.89</v>
+        <v>199865.85</v>
       </c>
       <c r="H29" t="n">
-        <v>88593.48</v>
+        <v>199772.05</v>
       </c>
       <c r="I29" t="n">
-        <v>88751.39</v>
+        <v>213948.69</v>
       </c>
       <c r="J29" t="n">
-        <v>88728.46000000001</v>
+        <v>224566.78</v>
       </c>
       <c r="K29" t="n">
-        <v>88516.60000000001</v>
+        <v>223608.12</v>
       </c>
       <c r="L29" t="n">
-        <v>87989.52</v>
+        <v>228550.54</v>
       </c>
       <c r="M29" t="n">
-        <v>77511.5</v>
+        <v>228713.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>239665.71</v>
+      </c>
+      <c r="O29" t="n">
+        <v>238628.01</v>
+      </c>
+      <c r="P29" t="n">
+        <v>238650.52</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>239222.98</v>
+      </c>
+      <c r="R29" t="n">
+        <v>238960.34</v>
+      </c>
+      <c r="S29" t="n">
+        <v>238719.73</v>
+      </c>
+      <c r="T29" t="n">
+        <v>239489.67</v>
+      </c>
+      <c r="U29" t="n">
+        <v>239586.57</v>
+      </c>
+      <c r="V29" t="n">
+        <v>249688.79</v>
+      </c>
+      <c r="W29" t="n">
+        <v>249067.82</v>
+      </c>
+      <c r="X29" t="n">
+        <v>248624.45</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>239272.76</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>239363.88</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>239064.57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2811.8</v>
+        <v>77511.5</v>
       </c>
       <c r="C30" t="n">
-        <v>2833.91</v>
+        <v>77434.94</v>
       </c>
       <c r="D30" t="n">
-        <v>3239.67</v>
+        <v>72649.25999999999</v>
       </c>
       <c r="E30" t="n">
-        <v>3239.29</v>
+        <v>74552.5</v>
       </c>
       <c r="F30" t="n">
-        <v>3241.93</v>
+        <v>75907.45</v>
       </c>
       <c r="G30" t="n">
-        <v>3226.3</v>
+        <v>80459.62</v>
       </c>
       <c r="H30" t="n">
-        <v>3208.76</v>
+        <v>83017.95</v>
       </c>
       <c r="I30" t="n">
-        <v>3222.26</v>
+        <v>87606.71000000001</v>
       </c>
       <c r="J30" t="n">
-        <v>3230.21</v>
+        <v>88850.94</v>
       </c>
       <c r="K30" t="n">
-        <v>3240.37</v>
+        <v>93319.14</v>
       </c>
       <c r="L30" t="n">
-        <v>3217.77</v>
+        <v>93267.16</v>
       </c>
       <c r="M30" t="n">
-        <v>3222.66</v>
+        <v>108342.65</v>
+      </c>
+      <c r="N30" t="n">
+        <v>108224.52</v>
+      </c>
+      <c r="O30" t="n">
+        <v>111056.51</v>
+      </c>
+      <c r="P30" t="n">
+        <v>113507.2</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>113602.27</v>
+      </c>
+      <c r="R30" t="n">
+        <v>113436.61</v>
+      </c>
+      <c r="S30" t="n">
+        <v>113414.63</v>
+      </c>
+      <c r="T30" t="n">
+        <v>98860.85000000001</v>
+      </c>
+      <c r="U30" t="n">
+        <v>82798.42999999999</v>
+      </c>
+      <c r="V30" t="n">
+        <v>81426.3</v>
+      </c>
+      <c r="W30" t="n">
+        <v>79577.31</v>
+      </c>
+      <c r="X30" t="n">
+        <v>82765.33</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>71943.61</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>78677.25999999999</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>78622.50999999999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>62561.72</v>
+        <v>3222.66</v>
       </c>
       <c r="C31" t="n">
-        <v>71093.2</v>
+        <v>3142.4</v>
       </c>
       <c r="D31" t="n">
-        <v>74990.45</v>
+        <v>3033.66</v>
       </c>
       <c r="E31" t="n">
-        <v>82790.83</v>
+        <v>3142.99</v>
       </c>
       <c r="F31" t="n">
-        <v>82938.10000000001</v>
+        <v>3148.56</v>
       </c>
       <c r="G31" t="n">
-        <v>82864.03</v>
+        <v>3127.61</v>
       </c>
       <c r="H31" t="n">
-        <v>83054.41</v>
+        <v>3137.5</v>
       </c>
       <c r="I31" t="n">
-        <v>82927.42999999999</v>
+        <v>3119.71</v>
       </c>
       <c r="J31" t="n">
-        <v>83117.86</v>
+        <v>3188.81</v>
       </c>
       <c r="K31" t="n">
-        <v>76021.39999999999</v>
+        <v>3218.98</v>
       </c>
       <c r="L31" t="n">
-        <v>73245.67</v>
+        <v>3221.19</v>
       </c>
       <c r="M31" t="n">
-        <v>72127.98</v>
-      </c>
+        <v>3197.25</v>
+      </c>
+      <c r="N31" t="n">
+        <v>3213.69</v>
+      </c>
+      <c r="O31" t="n">
+        <v>3219.76</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3212.77</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3192.06</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3205.17</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3214.23</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3165.3</v>
+      </c>
+      <c r="U31" t="n">
+        <v>3194.71</v>
+      </c>
+      <c r="V31" t="n">
+        <v>3204.21</v>
+      </c>
+      <c r="W31" t="n">
+        <v>3203.55</v>
+      </c>
+      <c r="X31" t="n">
+        <v>3029.68</v>
+      </c>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>13847.78</v>
+        <v>72127.98</v>
       </c>
       <c r="C32" t="n">
-        <v>13990.63</v>
+        <v>71992.27</v>
       </c>
       <c r="D32" t="n">
-        <v>13802.27</v>
+        <v>69479.28999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>13850.53</v>
+        <v>75534.97</v>
       </c>
       <c r="F32" t="n">
-        <v>13895</v>
+        <v>75377.05</v>
       </c>
       <c r="G32" t="n">
-        <v>13970.38</v>
+        <v>81559.87</v>
       </c>
       <c r="H32" t="n">
-        <v>13866.35</v>
+        <v>80403.78</v>
       </c>
       <c r="I32" t="n">
-        <v>13855.51</v>
+        <v>82180.77</v>
       </c>
       <c r="J32" t="n">
-        <v>13842.71</v>
+        <v>79155.78</v>
       </c>
       <c r="K32" t="n">
-        <v>13850.76</v>
+        <v>78900.06</v>
       </c>
       <c r="L32" t="n">
-        <v>13807.93</v>
+        <v>79162.06</v>
       </c>
       <c r="M32" t="n">
-        <v>13975.33</v>
+        <v>101360.07</v>
+      </c>
+      <c r="N32" t="n">
+        <v>101474.4</v>
+      </c>
+      <c r="O32" t="n">
+        <v>101485.82</v>
+      </c>
+      <c r="P32" t="n">
+        <v>101359.99</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>101703.92</v>
+      </c>
+      <c r="R32" t="n">
+        <v>101473.33</v>
+      </c>
+      <c r="S32" t="n">
+        <v>101473.26</v>
+      </c>
+      <c r="T32" t="n">
+        <v>101688.45</v>
+      </c>
+      <c r="U32" t="n">
+        <v>98052.73</v>
+      </c>
+      <c r="V32" t="n">
+        <v>97977.99000000001</v>
+      </c>
+      <c r="W32" t="n">
+        <v>114936.59</v>
+      </c>
+      <c r="X32" t="n">
+        <v>114703.12</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>109128.63</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>101749.65</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>101538.58</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>46332.05</v>
+        <v>13975.33</v>
       </c>
       <c r="C33" t="n">
-        <v>46354.95</v>
+        <v>13979.65</v>
       </c>
       <c r="D33" t="n">
-        <v>46378.19</v>
+        <v>13434.17</v>
       </c>
       <c r="E33" t="n">
-        <v>46389.78</v>
+        <v>13895.02</v>
       </c>
       <c r="F33" t="n">
-        <v>46346.66</v>
+        <v>14020.9</v>
       </c>
       <c r="G33" t="n">
-        <v>46305.92</v>
+        <v>13834.02</v>
       </c>
       <c r="H33" t="n">
-        <v>46301.28</v>
+        <v>14105.23</v>
       </c>
       <c r="I33" t="n">
-        <v>46382.85</v>
+        <v>14220.53</v>
       </c>
       <c r="J33" t="n">
-        <v>46286.23</v>
+        <v>14251.03</v>
       </c>
       <c r="K33" t="n">
-        <v>46396.74</v>
+        <v>14294.07</v>
       </c>
       <c r="L33" t="n">
-        <v>46337.82</v>
+        <v>14139.76</v>
       </c>
       <c r="M33" t="n">
-        <v>46413.03</v>
+        <v>14287.54</v>
+      </c>
+      <c r="N33" t="n">
+        <v>14332.53</v>
+      </c>
+      <c r="O33" t="n">
+        <v>14287.86</v>
+      </c>
+      <c r="P33" t="n">
+        <v>14316.85</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>14268.55</v>
+      </c>
+      <c r="R33" t="n">
+        <v>14127.42</v>
+      </c>
+      <c r="S33" t="n">
+        <v>14080.59</v>
+      </c>
+      <c r="T33" t="n">
+        <v>14349.24</v>
+      </c>
+      <c r="U33" t="n">
+        <v>29283.5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>29088.91</v>
+      </c>
+      <c r="W33" t="n">
+        <v>29311.6</v>
+      </c>
+      <c r="X33" t="n">
+        <v>29183.28</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>29115.23</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>29194.44</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>29333.64</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>49829.03</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
+        <v>46413.03</v>
+      </c>
+      <c r="C34" t="n">
+        <v>46336.15</v>
+      </c>
       <c r="D34" t="n">
-        <v>120176.4</v>
+        <v>44695.63</v>
       </c>
       <c r="E34" t="n">
-        <v>119717.05</v>
+        <v>46262.59</v>
       </c>
       <c r="F34" t="n">
-        <v>119725.44</v>
+        <v>46232.44</v>
       </c>
       <c r="G34" t="n">
-        <v>120025.54</v>
+        <v>46225.69</v>
       </c>
       <c r="H34" t="n">
-        <v>120316.38</v>
+        <v>26263.4</v>
       </c>
       <c r="I34" t="n">
-        <v>119735.5</v>
+        <v>26449.35</v>
       </c>
       <c r="J34" t="n">
-        <v>120266.09</v>
+        <v>26420.1</v>
       </c>
       <c r="K34" t="n">
-        <v>119780.14</v>
+        <v>26384.24</v>
       </c>
       <c r="L34" t="n">
-        <v>120013.95</v>
+        <v>26367.41</v>
       </c>
       <c r="M34" t="n">
-        <v>119717.39</v>
+        <v>26379.74</v>
+      </c>
+      <c r="N34" t="n">
+        <v>26311.12</v>
+      </c>
+      <c r="O34" t="n">
+        <v>26308.85</v>
+      </c>
+      <c r="P34" t="n">
+        <v>26447.82</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>26263.34</v>
+      </c>
+      <c r="R34" t="n">
+        <v>26400.04</v>
+      </c>
+      <c r="S34" t="n">
+        <v>26266.17</v>
+      </c>
+      <c r="T34" t="n">
+        <v>26283.51</v>
+      </c>
+      <c r="U34" t="n">
+        <v>26354.07</v>
+      </c>
+      <c r="V34" t="n">
+        <v>26385.23</v>
+      </c>
+      <c r="W34" t="n">
+        <v>30902.98</v>
+      </c>
+      <c r="X34" t="n">
+        <v>30900.32</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>30983.67</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>30839.07</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>30920.52</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Pionero Acciones</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>214583.84</v>
+        <v>119717.39</v>
       </c>
       <c r="C35" t="n">
-        <v>214408.32</v>
+        <v>120058.18</v>
       </c>
       <c r="D35" t="n">
-        <v>214351.74</v>
+        <v>115855.29</v>
       </c>
       <c r="E35" t="n">
-        <v>214441.97</v>
+        <v>119782.31</v>
       </c>
       <c r="F35" t="n">
-        <v>214543.76</v>
+        <v>119929.74</v>
       </c>
       <c r="G35" t="n">
-        <v>214179.05</v>
+        <v>120038.28</v>
       </c>
       <c r="H35" t="n">
-        <v>214916.92</v>
+        <v>119870.79</v>
       </c>
       <c r="I35" t="n">
-        <v>215009.96</v>
+        <v>122500.69</v>
       </c>
       <c r="J35" t="n">
-        <v>214397.84</v>
+        <v>122319.58</v>
       </c>
       <c r="K35" t="n">
-        <v>214341.43</v>
+        <v>122514.06</v>
       </c>
       <c r="L35" t="n">
-        <v>214716.34</v>
+        <v>122534.93</v>
       </c>
       <c r="M35" t="n">
-        <v>214316.94</v>
+        <v>122594.85</v>
+      </c>
+      <c r="N35" t="n">
+        <v>122844.28</v>
+      </c>
+      <c r="O35" t="n">
+        <v>122885.07</v>
+      </c>
+      <c r="P35" t="n">
+        <v>122756.75</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>122633.72</v>
+      </c>
+      <c r="R35" t="n">
+        <v>122542.75</v>
+      </c>
+      <c r="S35" t="n">
+        <v>122761.75</v>
+      </c>
+      <c r="T35" t="n">
+        <v>122230.21</v>
+      </c>
+      <c r="U35" t="n">
+        <v>122502.21</v>
+      </c>
+      <c r="V35" t="n">
+        <v>122502.29</v>
+      </c>
+      <c r="W35" t="n">
+        <v>155725.9</v>
+      </c>
+      <c r="X35" t="n">
+        <v>155711.82</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>155493.73</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>233777.23</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>233818.95</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pionero Acciones</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>60645.8</v>
+        <v>214316.94</v>
       </c>
       <c r="C36" t="n">
-        <v>60516.93</v>
+        <v>214321.87</v>
       </c>
       <c r="D36" t="n">
-        <v>60508.81</v>
+        <v>206789.45</v>
       </c>
       <c r="E36" t="n">
-        <v>60430.14</v>
+        <v>215148</v>
       </c>
       <c r="F36" t="n">
-        <v>60640.63</v>
+        <v>214807.9</v>
       </c>
       <c r="G36" t="n">
-        <v>60436.48</v>
+        <v>214165.04</v>
       </c>
       <c r="H36" t="n">
-        <v>60582.73</v>
+        <v>214355.83</v>
       </c>
       <c r="I36" t="n">
-        <v>60572.81</v>
+        <v>219208.97</v>
       </c>
       <c r="J36" t="n">
-        <v>60720.62</v>
+        <v>219870.01</v>
       </c>
       <c r="K36" t="n">
-        <v>60408.96</v>
+        <v>219593.9</v>
       </c>
       <c r="L36" t="n">
-        <v>60505.9</v>
+        <v>219763.76</v>
       </c>
       <c r="M36" t="n">
-        <v>60573.07</v>
+        <v>220134.35</v>
+      </c>
+      <c r="N36" t="n">
+        <v>218851.64</v>
+      </c>
+      <c r="O36" t="n">
+        <v>219645.6</v>
+      </c>
+      <c r="P36" t="n">
+        <v>219080.53</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>220016.31</v>
+      </c>
+      <c r="R36" t="n">
+        <v>219901.33</v>
+      </c>
+      <c r="S36" t="n">
+        <v>331810.93</v>
+      </c>
+      <c r="T36" t="n">
+        <v>330056.52</v>
+      </c>
+      <c r="U36" t="n">
+        <v>331834.07</v>
+      </c>
+      <c r="V36" t="n">
+        <v>331698.04</v>
+      </c>
+      <c r="W36" t="n">
+        <v>332615.42</v>
+      </c>
+      <c r="X36" t="n">
+        <v>331883.84</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>331518.23</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>332009.95</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>331952.88</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>153737.81</v>
+        <v>60573.07</v>
       </c>
       <c r="C37" t="n">
-        <v>154135.23</v>
+        <v>60487.08</v>
       </c>
       <c r="D37" t="n">
-        <v>153830.03</v>
+        <v>58347.49</v>
       </c>
       <c r="E37" t="n">
-        <v>154029.71</v>
+        <v>60745.65</v>
       </c>
       <c r="F37" t="n">
-        <v>154174.72</v>
+        <v>60404.15</v>
       </c>
       <c r="G37" t="n">
-        <v>153622.16</v>
+        <v>86713.16</v>
       </c>
       <c r="H37" t="n">
-        <v>153737.52</v>
+        <v>86561.62</v>
       </c>
       <c r="I37" t="n">
-        <v>154067.1</v>
+        <v>88677.96000000001</v>
       </c>
       <c r="J37" t="n">
-        <v>154050.7</v>
+        <v>88449.28</v>
       </c>
       <c r="K37" t="n">
-        <v>153799.53</v>
+        <v>88532.10000000001</v>
       </c>
       <c r="L37" t="n">
-        <v>153934.3</v>
+        <v>91528.22</v>
       </c>
       <c r="M37" t="n">
-        <v>153705.57</v>
+        <v>91532.60000000001</v>
+      </c>
+      <c r="N37" t="n">
+        <v>91597.71000000001</v>
+      </c>
+      <c r="O37" t="n">
+        <v>91253.52</v>
+      </c>
+      <c r="P37" t="n">
+        <v>96257.74000000001</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>106484.8</v>
+      </c>
+      <c r="R37" t="n">
+        <v>106264.89</v>
+      </c>
+      <c r="S37" t="n">
+        <v>106248.71</v>
+      </c>
+      <c r="T37" t="n">
+        <v>105504.09</v>
+      </c>
+      <c r="U37" t="n">
+        <v>106312.54</v>
+      </c>
+      <c r="V37" t="n">
+        <v>106268.2</v>
+      </c>
+      <c r="W37" t="n">
+        <v>106381.26</v>
+      </c>
+      <c r="X37" t="n">
+        <v>106719.78</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>106193.38</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>106259.67</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>106660.43</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>108208.8</v>
+        <v>153705.57</v>
       </c>
       <c r="C38" t="n">
-        <v>108402.05</v>
+        <v>153793.01</v>
       </c>
       <c r="D38" t="n">
-        <v>102093.3</v>
+        <v>148103.12</v>
       </c>
       <c r="E38" t="n">
-        <v>100265.96</v>
+        <v>153946.76</v>
       </c>
       <c r="F38" t="n">
-        <v>107727.64</v>
+        <v>153677.98</v>
       </c>
       <c r="G38" t="n">
-        <v>109223.4</v>
+        <v>154040.54</v>
       </c>
       <c r="H38" t="n">
-        <v>109394.13</v>
+        <v>118158.06</v>
       </c>
       <c r="I38" t="n">
-        <v>109241.9</v>
+        <v>118453.98</v>
       </c>
       <c r="J38" t="n">
-        <v>109629.68</v>
+        <v>118227.36</v>
       </c>
       <c r="K38" t="n">
-        <v>109333.6</v>
+        <v>118167.91</v>
       </c>
       <c r="L38" t="n">
-        <v>109631.85</v>
+        <v>118471.93</v>
       </c>
       <c r="M38" t="n">
-        <v>106119.83</v>
+        <v>118308.17</v>
+      </c>
+      <c r="N38" t="n">
+        <v>118730</v>
+      </c>
+      <c r="O38" t="n">
+        <v>106455.65</v>
+      </c>
+      <c r="P38" t="n">
+        <v>98187.53</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>98550.53</v>
+      </c>
+      <c r="R38" t="n">
+        <v>98179.91</v>
+      </c>
+      <c r="S38" t="n">
+        <v>98033.56</v>
+      </c>
+      <c r="T38" t="n">
+        <v>98595.75</v>
+      </c>
+      <c r="U38" t="n">
+        <v>98112.81</v>
+      </c>
+      <c r="V38" t="n">
+        <v>83733.14</v>
+      </c>
+      <c r="W38" t="n">
+        <v>83443.39999999999</v>
+      </c>
+      <c r="X38" t="n">
+        <v>83888.58</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>83754.08</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>89072.86</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>88681.64</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1986685.86</v>
+        <v>106119.83</v>
       </c>
       <c r="C39" t="n">
-        <v>1988073.21</v>
+        <v>100478.29</v>
       </c>
       <c r="D39" t="n">
-        <v>1988278.15</v>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
+        <v>96914.56</v>
+      </c>
+      <c r="E39" t="n">
+        <v>101651.91</v>
+      </c>
+      <c r="F39" t="n">
+        <v>100809.23</v>
+      </c>
+      <c r="G39" t="n">
+        <v>109583.36</v>
+      </c>
+      <c r="H39" t="n">
+        <v>109344.3</v>
+      </c>
+      <c r="I39" t="n">
+        <v>109252.56</v>
+      </c>
+      <c r="J39" t="n">
+        <v>109292.99</v>
+      </c>
+      <c r="K39" t="n">
+        <v>111717.66</v>
+      </c>
+      <c r="L39" t="n">
+        <v>110969.27</v>
+      </c>
+      <c r="M39" t="n">
+        <v>105564.2</v>
+      </c>
+      <c r="N39" t="n">
+        <v>103992.42</v>
+      </c>
+      <c r="O39" t="n">
+        <v>104746.38</v>
+      </c>
+      <c r="P39" t="n">
+        <v>112029.04</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>101235.04</v>
+      </c>
+      <c r="R39" t="n">
+        <v>101606.6</v>
+      </c>
+      <c r="S39" t="n">
+        <v>101425.68</v>
+      </c>
+      <c r="T39" t="n">
+        <v>110228.56</v>
+      </c>
+      <c r="U39" t="n">
+        <v>110877.74</v>
+      </c>
+      <c r="V39" t="n">
+        <v>109575.58</v>
+      </c>
+      <c r="W39" t="n">
+        <v>109664.16</v>
+      </c>
+      <c r="X39" t="n">
+        <v>127149.27</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>127000.22</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>127116.64</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>127083.06</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -2104,40 +3704,82 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659915.41</v>
+        <v>738428.88</v>
       </c>
       <c r="C40" t="n">
-        <v>661651.3199999999</v>
+        <v>736776.49</v>
       </c>
       <c r="D40" t="n">
-        <v>736348.5600000001</v>
+        <v>636739.52</v>
       </c>
       <c r="E40" t="n">
-        <v>734681.52</v>
+        <v>661765.77</v>
       </c>
       <c r="F40" t="n">
-        <v>736071.55</v>
+        <v>658857.95</v>
       </c>
       <c r="G40" t="n">
-        <v>735243.4399999999</v>
+        <v>660947.95</v>
       </c>
       <c r="H40" t="n">
-        <v>734556.4300000001</v>
+        <v>674410.05</v>
       </c>
       <c r="I40" t="n">
-        <v>738162.22</v>
+        <v>673969.98</v>
       </c>
       <c r="J40" t="n">
-        <v>736818.08</v>
+        <v>877076.72</v>
       </c>
       <c r="K40" t="n">
-        <v>736379.66</v>
+        <v>874671.39</v>
       </c>
       <c r="L40" t="n">
-        <v>738004.27</v>
+        <v>875035.0699999999</v>
       </c>
       <c r="M40" t="n">
-        <v>738428.88</v>
+        <v>1155142.54</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1157531.41</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1159076.37</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1159752.21</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1156977.6</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1158461.83</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1160150.27</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1159756.98</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1154052.99</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1158450.91</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1156621.29</v>
+      </c>
+      <c r="X40" t="n">
+        <v>1156399.87</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>881439.9</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>877090.03</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>880278.23</v>
       </c>
     </row>
     <row r="41">
@@ -2147,40 +3789,82 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>197661.1</v>
+        <v>198814.4</v>
       </c>
       <c r="C41" t="n">
-        <v>197729.46</v>
+        <v>197612.32</v>
       </c>
       <c r="D41" t="n">
-        <v>198139.46</v>
+        <v>190414.76</v>
       </c>
       <c r="E41" t="n">
-        <v>197227.67</v>
+        <v>197922</v>
       </c>
       <c r="F41" t="n">
-        <v>197865.52</v>
+        <v>198311.64</v>
       </c>
       <c r="G41" t="n">
-        <v>197751.84</v>
+        <v>198001.11</v>
       </c>
       <c r="H41" t="n">
-        <v>197355.92</v>
+        <v>201575.58</v>
       </c>
       <c r="I41" t="n">
-        <v>198712.24</v>
+        <v>203607.98</v>
       </c>
       <c r="J41" t="n">
-        <v>197438.15</v>
+        <v>201752.94</v>
       </c>
       <c r="K41" t="n">
-        <v>198020.46</v>
+        <v>203177.77</v>
       </c>
       <c r="L41" t="n">
-        <v>198599</v>
+        <v>203363.12</v>
       </c>
       <c r="M41" t="n">
-        <v>198814.4</v>
+        <v>203209.86</v>
+      </c>
+      <c r="N41" t="n">
+        <v>202882.79</v>
+      </c>
+      <c r="O41" t="n">
+        <v>203296.47</v>
+      </c>
+      <c r="P41" t="n">
+        <v>202134.09</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>203116.63</v>
+      </c>
+      <c r="R41" t="n">
+        <v>202189.42</v>
+      </c>
+      <c r="S41" t="n">
+        <v>203046.03</v>
+      </c>
+      <c r="T41" t="n">
+        <v>201823.17</v>
+      </c>
+      <c r="U41" t="n">
+        <v>201270.27</v>
+      </c>
+      <c r="V41" t="n">
+        <v>201702.41</v>
+      </c>
+      <c r="W41" t="n">
+        <v>202515.65</v>
+      </c>
+      <c r="X41" t="n">
+        <v>203397.54</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>202918.8</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>202401.55</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>201692.11</v>
       </c>
     </row>
     <row r="42">
@@ -2190,151 +3874,252 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>79944.42</v>
+        <v>80071.74000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>80133.28</v>
+        <v>79982.50999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>79945.84</v>
+        <v>77182.63</v>
       </c>
       <c r="E42" t="n">
-        <v>79975.08</v>
+        <v>80068.27</v>
       </c>
       <c r="F42" t="n">
-        <v>79918.24000000001</v>
+        <v>79951.50999999999</v>
       </c>
       <c r="G42" t="n">
-        <v>79994.13</v>
+        <v>80092.3</v>
       </c>
       <c r="H42" t="n">
-        <v>80022.25</v>
+        <v>80157.97</v>
       </c>
       <c r="I42" t="n">
-        <v>80111.66</v>
+        <v>81803.06</v>
       </c>
       <c r="J42" t="n">
-        <v>79994.22</v>
+        <v>81826.16</v>
       </c>
       <c r="K42" t="n">
-        <v>79995.10000000001</v>
+        <v>81647.05</v>
       </c>
       <c r="L42" t="n">
-        <v>80097.24000000001</v>
+        <v>81815.25</v>
       </c>
       <c r="M42" t="n">
-        <v>80071.74000000001</v>
+        <v>81698.42999999999</v>
+      </c>
+      <c r="N42" t="n">
+        <v>81693.24000000001</v>
+      </c>
+      <c r="O42" t="n">
+        <v>81852.25999999999</v>
+      </c>
+      <c r="P42" t="n">
+        <v>81783.61</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>87845.61</v>
+      </c>
+      <c r="R42" t="n">
+        <v>87795.12</v>
+      </c>
+      <c r="S42" t="n">
+        <v>87792.25999999999</v>
+      </c>
+      <c r="T42" t="n">
+        <v>87328.60000000001</v>
+      </c>
+      <c r="U42" t="n">
+        <v>87914.41</v>
+      </c>
+      <c r="V42" t="n">
+        <v>88008.91</v>
+      </c>
+      <c r="W42" t="n">
+        <v>87829.38</v>
+      </c>
+      <c r="X42" t="n">
+        <v>87868.87</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>87997.81</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>87954.02</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>87908.52</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>123590.2</v>
+        <v>145854.09</v>
       </c>
       <c r="C43" t="n">
-        <v>123591.93</v>
+        <v>145686.88</v>
       </c>
       <c r="D43" t="n">
-        <v>123592.33</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
+        <v>138592.42</v>
+      </c>
+      <c r="E43" t="n">
+        <v>143461.07</v>
+      </c>
+      <c r="F43" t="n">
+        <v>147597.78</v>
+      </c>
+      <c r="G43" t="n">
+        <v>150648.33</v>
+      </c>
+      <c r="H43" t="n">
+        <v>149844.21</v>
+      </c>
+      <c r="I43" t="n">
+        <v>153415.69</v>
+      </c>
+      <c r="J43" t="n">
+        <v>160548.13</v>
+      </c>
+      <c r="K43" t="n">
+        <v>161573.66</v>
+      </c>
+      <c r="L43" t="n">
+        <v>161904.79</v>
+      </c>
+      <c r="M43" t="n">
+        <v>170094.89</v>
+      </c>
+      <c r="N43" t="n">
+        <v>171362.12</v>
+      </c>
+      <c r="O43" t="n">
+        <v>172557.47</v>
+      </c>
+      <c r="P43" t="n">
+        <v>185245.96</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>188600.88</v>
+      </c>
+      <c r="R43" t="n">
+        <v>190439.07</v>
+      </c>
+      <c r="S43" t="n">
+        <v>193937.94</v>
+      </c>
+      <c r="T43" t="n">
+        <v>191994.56</v>
+      </c>
+      <c r="U43" t="n">
+        <v>190447.91</v>
+      </c>
+      <c r="V43" t="n">
+        <v>193576.54</v>
+      </c>
+      <c r="W43" t="n">
+        <v>197826.26</v>
+      </c>
+      <c r="X43" t="n">
+        <v>196016.97</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>190895.69</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>197122.74</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>196702.96</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>184385.27</v>
+        <v>5834163.5</v>
       </c>
       <c r="C44" t="n">
-        <v>185841.75</v>
+        <v>5827475.08</v>
       </c>
       <c r="D44" t="n">
-        <v>187380.59</v>
+        <v>5543696.84</v>
       </c>
       <c r="E44" t="n">
-        <v>146370.29</v>
+        <v>5738442.83</v>
       </c>
       <c r="F44" t="n">
-        <v>146898.83</v>
+        <v>5903911.06</v>
       </c>
       <c r="G44" t="n">
-        <v>144574.32</v>
+        <v>6025933.23</v>
       </c>
       <c r="H44" t="n">
-        <v>144901.52</v>
+        <v>5993768.2</v>
       </c>
       <c r="I44" t="n">
-        <v>144626.16</v>
+        <v>6136627.43</v>
       </c>
       <c r="J44" t="n">
-        <v>142320.61</v>
+        <v>6421925.09</v>
       </c>
       <c r="K44" t="n">
-        <v>143553.1</v>
+        <v>6462946.46</v>
       </c>
       <c r="L44" t="n">
-        <v>142930.32</v>
+        <v>6476191.53</v>
       </c>
       <c r="M44" t="n">
-        <v>145854.09</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>7744181.33</v>
-      </c>
-      <c r="C45" t="n">
-        <v>6504461.37</v>
-      </c>
-      <c r="D45" t="n">
-        <v>7869984.98</v>
-      </c>
-      <c r="E45" t="n">
-        <v>5854811.7</v>
-      </c>
-      <c r="F45" t="n">
-        <v>5875953.14</v>
-      </c>
-      <c r="G45" t="n">
-        <v>5782972.78</v>
-      </c>
-      <c r="H45" t="n">
-        <v>5796060.97</v>
-      </c>
-      <c r="I45" t="n">
-        <v>5785046.3</v>
-      </c>
-      <c r="J45" t="n">
-        <v>5692824.38</v>
-      </c>
-      <c r="K45" t="n">
-        <v>5742124.04</v>
-      </c>
-      <c r="L45" t="n">
-        <v>5717212.81</v>
-      </c>
-      <c r="M45" t="n">
-        <v>5834163.5</v>
+        <v>6803795.5</v>
+      </c>
+      <c r="N44" t="n">
+        <v>6854484.81</v>
+      </c>
+      <c r="O44" t="n">
+        <v>6902298.68</v>
+      </c>
+      <c r="P44" t="n">
+        <v>7039346.59</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>7166833.47</v>
+      </c>
+      <c r="R44" t="n">
+        <v>7236684.7</v>
+      </c>
+      <c r="S44" t="n">
+        <v>7369641.69</v>
+      </c>
+      <c r="T44" t="n">
+        <v>7295793.13</v>
+      </c>
+      <c r="U44" t="n">
+        <v>7237020.48</v>
+      </c>
+      <c r="V44" t="n">
+        <v>7355908.63</v>
+      </c>
+      <c r="W44" t="n">
+        <v>7517398.01</v>
+      </c>
+      <c r="X44" t="n">
+        <v>7644661.76</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>7254036.31</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>7490664.15</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>7474712.57</v>
       </c>
     </row>
   </sheetData>
